--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_24_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_24_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1074688.760983895</v>
+        <v>-1076293.178910226</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>112.7767641059199</v>
+        <v>254.9455259660929</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232952</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>254.142054374874</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358283</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274266</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212886</v>
+        <v>17.65528330212902</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014326</v>
+        <v>83.0944345801434</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.3341395078953</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200252</v>
+        <v>221.4526530200254</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.63169901743413</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247955</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>44.92018329092795</v>
+        <v>44.92018329092809</v>
       </c>
       <c r="D12" t="n">
-        <v>19.65674986725097</v>
+        <v>19.65674986725111</v>
       </c>
       <c r="E12" t="n">
-        <v>29.85676475801316</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599609</v>
+        <v>17.28089669599623</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577236</v>
+        <v>8.062435227577378</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S12" t="n">
-        <v>143.9556929504599</v>
+        <v>121.6706036061313</v>
       </c>
       <c r="T12" t="n">
-        <v>194.1478331994369</v>
+        <v>66.35951750204924</v>
       </c>
       <c r="U12" t="n">
-        <v>98.0548580784393</v>
+        <v>98.05485807843944</v>
       </c>
       <c r="V12" t="n">
-        <v>105.0122714520375</v>
+        <v>105.0122714520376</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>123.906667463532</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608969</v>
+        <v>77.98466950608983</v>
       </c>
       <c r="Y12" t="n">
-        <v>156.7330438274795</v>
+        <v>77.89438007991671</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454951</v>
+        <v>52.04366448454965</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124005</v>
+        <v>39.45850540124019</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082457</v>
+        <v>20.82715732082471</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918138</v>
+        <v>18.64564694918153</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554346</v>
+        <v>17.6327323255436</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219379</v>
+        <v>38.95117859219393</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403467</v>
+        <v>23.31201683403481</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015217</v>
+        <v>74.41831073015231</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569122</v>
+        <v>94.81001934569136</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4624508371643</v>
+        <v>158.4624508371645</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264402</v>
+        <v>124.3493276264404</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7346826392032</v>
+        <v>158.7346826392034</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164937</v>
+        <v>97.92133969164951</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.796337654707</v>
+        <v>90.79633765470714</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>224.4253420851459</v>
+        <v>254.9455259660929</v>
       </c>
       <c r="C14" t="n">
-        <v>237.4845760736197</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>254.142054374874</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>279.0877300443238</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358283</v>
+        <v>284.7244505358285</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274266</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>17.65528330212901</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.0944345801434</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>123.3341395078953</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9639427727471</v>
+        <v>157.8988019058019</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.74486795247951</v>
+        <v>38.74486795247969</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092791</v>
+        <v>44.92018329092809</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725092</v>
+        <v>98.49541361481222</v>
       </c>
       <c r="E15" t="n">
-        <v>29.85676475801311</v>
+        <v>29.8567647580133</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>17.28089669599623</v>
       </c>
       <c r="G15" t="n">
-        <v>8.062435227577193</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>16.16737725307211</v>
+        <v>16.1673772530723</v>
       </c>
       <c r="T15" t="n">
-        <v>145.1981812496128</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843925</v>
+        <v>98.05485807843944</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>105.0122714520376</v>
       </c>
       <c r="W15" t="n">
-        <v>123.9066674635318</v>
+        <v>123.906667463532</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>77.98466950608983</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.89438007991653</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454947</v>
+        <v>52.04366448454965</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540124</v>
+        <v>39.45850540124019</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082453</v>
+        <v>20.82715732082471</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918134</v>
+        <v>18.64564694918153</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554342</v>
+        <v>17.6327323255436</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219375</v>
+        <v>38.95117859219393</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403463</v>
+        <v>23.31201683403481</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015211</v>
+        <v>74.41831073015231</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569117</v>
+        <v>94.81001934569136</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371643</v>
+        <v>158.4624508371645</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264402</v>
+        <v>124.3493276264404</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392032</v>
+        <v>158.7346826392034</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164932</v>
+        <v>97.92133969164951</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470696</v>
+        <v>90.79633765470714</v>
       </c>
     </row>
     <row r="17">
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T18" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>151.0011941720451</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>8.766514103845765</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>174.9560855862736</v>
       </c>
     </row>
     <row r="19">
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>93.08189356270789</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1143838566529</v>
+        <v>43.32229747747829</v>
       </c>
       <c r="V19" t="n">
         <v>9.209174266754161</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064069</v>
+        <v>139.8053726064067</v>
       </c>
       <c r="C20" t="n">
         <v>122.3444227139337</v>
@@ -2093,7 +2093,7 @@
         <v>163.9475766846376</v>
       </c>
       <c r="G20" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761423</v>
       </c>
       <c r="H20" t="n">
         <v>67.9735396677406</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148209136</v>
+        <v>8.193986148209149</v>
       </c>
       <c r="V20" t="n">
         <v>84.82378941306106</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2178,7 +2178,7 @@
         <v>97.81846504080859</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1478331994369</v>
+        <v>174.9079555873265</v>
       </c>
       <c r="U21" t="n">
         <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>82.27714003349287</v>
+        <v>8.766514103845765</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.7920863791746</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>139.7920863791747</v>
       </c>
     </row>
     <row r="23">
@@ -2400,22 +2400,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>37.94474835325915</v>
       </c>
       <c r="U24" t="n">
-        <v>123.6208150261129</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>8.766514103845765</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.71019281646672</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>9.209174266754161</v>
       </c>
       <c r="W25" t="n">
-        <v>43.59452927951716</v>
+        <v>62.36454383303617</v>
       </c>
       <c r="X25" t="n">
-        <v>93.0818935627079</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037946</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113215</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609969</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125758</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F26" t="n">
-        <v>291.7358923820254</v>
+        <v>291.7358923820252</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3726128735301</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H26" t="n">
-        <v>195.7618553651284</v>
+        <v>195.7618553651282</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983063</v>
+        <v>30.30344563983046</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784502</v>
+        <v>95.74259691784485</v>
       </c>
       <c r="U26" t="n">
-        <v>135.982301845597</v>
+        <v>135.9823018455968</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104489</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W26" t="n">
-        <v>234.100815357727</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X26" t="n">
-        <v>254.590947318783</v>
+        <v>254.5909473187828</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963675</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2634,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>57.56834562862971</v>
+        <v>57.56834562862954</v>
       </c>
       <c r="D27" t="n">
-        <v>32.30491220495273</v>
+        <v>46.80505314931315</v>
       </c>
       <c r="E27" t="n">
-        <v>42.50492709571492</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>29.92905903369785</v>
+        <v>29.92905903369768</v>
       </c>
       <c r="G27" t="n">
-        <v>20.710597565279</v>
+        <v>20.71059756527883</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S27" t="n">
-        <v>28.81553959077392</v>
+        <v>28.81553959077375</v>
       </c>
       <c r="T27" t="n">
-        <v>79.00767983975086</v>
+        <v>79.00767983975069</v>
       </c>
       <c r="U27" t="n">
-        <v>110.7030204161411</v>
+        <v>110.7030204161409</v>
       </c>
       <c r="V27" t="n">
-        <v>117.6604337897392</v>
+        <v>117.6604337897391</v>
       </c>
       <c r="W27" t="n">
-        <v>136.5548298012336</v>
+        <v>136.5548298012334</v>
       </c>
       <c r="X27" t="n">
-        <v>158.1300255740225</v>
+        <v>90.63283184379128</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>90.54254241761817</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225127</v>
+        <v>64.6918268222511</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894181</v>
+        <v>52.10666773894164</v>
       </c>
       <c r="D28" t="n">
-        <v>33.47531965852633</v>
+        <v>33.47531965852616</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688315</v>
+        <v>31.29380928688298</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324522</v>
+        <v>30.28089466324505</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989555</v>
+        <v>51.59934092989538</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173643</v>
+        <v>35.96017917173626</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338509</v>
+        <v>2.674752405338339</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969548</v>
+        <v>5.881918465969378</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785393</v>
+        <v>87.06647306785376</v>
       </c>
       <c r="T28" t="n">
-        <v>107.458181683393</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U28" t="n">
-        <v>171.1106131748661</v>
+        <v>171.1106131748659</v>
       </c>
       <c r="V28" t="n">
-        <v>136.997489964142</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W28" t="n">
-        <v>171.382844976905</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X28" t="n">
-        <v>110.5695020293511</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924088</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037945</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C29" t="n">
         <v>250.1327384113214</v>
@@ -2798,16 +2798,16 @@
         <v>239.5428882609968</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125757</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F29" t="n">
-        <v>291.7358923820253</v>
+        <v>291.7358923820252</v>
       </c>
       <c r="G29" t="n">
-        <v>297.37261287353</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H29" t="n">
-        <v>195.7618553651283</v>
+        <v>195.7618553651282</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983056</v>
+        <v>30.30344563983047</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784493</v>
+        <v>95.74259691784485</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455969</v>
+        <v>135.9823018455968</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104488</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577269</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187829</v>
+        <v>254.5909473187828</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.0977852963675</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.39303029018123</v>
+        <v>118.8902240204141</v>
       </c>
       <c r="C30" t="n">
-        <v>57.56834562862963</v>
+        <v>57.56834562862954</v>
       </c>
       <c r="D30" t="n">
-        <v>32.30491220495264</v>
+        <v>32.30491220495256</v>
       </c>
       <c r="E30" t="n">
-        <v>54.40003754537778</v>
+        <v>42.50492709571475</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>29.92905903369768</v>
       </c>
       <c r="G30" t="n">
-        <v>135.850750924965</v>
+        <v>20.71059756527883</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.475382974551593</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.81553959077383</v>
+        <v>28.81553959077375</v>
       </c>
       <c r="T30" t="n">
-        <v>79.00767983975078</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U30" t="n">
-        <v>110.703020416141</v>
+        <v>110.7030204161409</v>
       </c>
       <c r="V30" t="n">
-        <v>117.6604337897392</v>
+        <v>117.6604337897391</v>
       </c>
       <c r="W30" t="n">
-        <v>136.5548298012335</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>90.63283184379137</v>
+        <v>90.63283184379128</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.54254241761825</v>
+        <v>90.54254241761817</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225119</v>
+        <v>64.6918268222511</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894172</v>
+        <v>52.10666773894164</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852625</v>
+        <v>33.47531965852616</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688306</v>
+        <v>31.29380928688298</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324514</v>
+        <v>30.28089466324505</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989547</v>
+        <v>51.59934092989538</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173635</v>
+        <v>35.96017917173626</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338424</v>
+        <v>2.674752405338339</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969463</v>
+        <v>5.881918465969378</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785385</v>
+        <v>87.06647306785376</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833929</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U31" t="n">
-        <v>171.110613174866</v>
+        <v>171.1106131748659</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641419</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769049</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X31" t="n">
         <v>110.569502029351</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924087</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037945</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C32" t="n">
         <v>250.1327384113214</v>
@@ -3035,13 +3035,13 @@
         <v>239.5428882609968</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125757</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F32" t="n">
         <v>291.7358923820253</v>
       </c>
       <c r="G32" t="n">
-        <v>297.37261287353</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H32" t="n">
         <v>195.7618553651283</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983057</v>
+        <v>30.3034456398305</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784495</v>
+        <v>95.74259691784488</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455969</v>
+        <v>135.9823018455968</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104488</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577269</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X32" t="n">
         <v>254.5909473187829</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963675</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.39303029018124</v>
+        <v>51.39303029018117</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>76.93883905284474</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>42.50492709571485</v>
+        <v>42.50492709571478</v>
       </c>
       <c r="F33" t="n">
-        <v>29.92905903369778</v>
+        <v>29.92905903369771</v>
       </c>
       <c r="G33" t="n">
-        <v>20.71059756527893</v>
+        <v>20.71059756527886</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>28.81553959077385</v>
+        <v>28.81553959077377</v>
       </c>
       <c r="T33" t="n">
-        <v>79.00767983975079</v>
+        <v>79.00767983975072</v>
       </c>
       <c r="U33" t="n">
-        <v>178.200214146373</v>
+        <v>110.7030204161409</v>
       </c>
       <c r="V33" t="n">
-        <v>117.6604337897392</v>
+        <v>117.6604337897391</v>
       </c>
       <c r="W33" t="n">
-        <v>136.5548298012335</v>
+        <v>136.5548298012334</v>
       </c>
       <c r="X33" t="n">
-        <v>90.63283184379138</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.54254241761826</v>
+        <v>90.54254241761819</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.6918268222512</v>
+        <v>64.69182682225113</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894174</v>
+        <v>52.10666773894167</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852626</v>
+        <v>33.47531965852619</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688308</v>
+        <v>31.293809286883</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324515</v>
+        <v>30.28089466324508</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989548</v>
+        <v>51.59934092989541</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173636</v>
+        <v>35.96017917173629</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338438</v>
+        <v>2.674752405338367</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969477</v>
+        <v>5.881918465969406</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785386</v>
+        <v>87.06647306785379</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833929</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U34" t="n">
         <v>171.110613174866</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641419</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769049</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293511</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924087</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111308</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186578</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683332</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E35" t="n">
-        <v>161.972882019912</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F35" t="n">
         <v>186.9185576893616</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808663</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246465</v>
+        <v>90.94452067246456</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.1649671529332</v>
+        <v>31.16496715293312</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7947704177851</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650632</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X35" t="n">
         <v>149.7736126261192</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037038</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64.31082490015358</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477208</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>12.8430990970754</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>124.1648235695673</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.640846990729211</v>
+        <v>18.41678321184877</v>
       </c>
       <c r="U37" t="n">
-        <v>66.29327848220234</v>
+        <v>66.29327848220225</v>
       </c>
       <c r="V37" t="n">
-        <v>32.18015527147821</v>
+        <v>32.18015527147813</v>
       </c>
       <c r="W37" t="n">
-        <v>129.0516393218271</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336687364</v>
+        <v>5.752167336687279</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111308</v>
+        <v>162.7763536111306</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186578</v>
+        <v>145.3154037186576</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683332</v>
+        <v>134.725553568333</v>
       </c>
       <c r="E38" t="n">
-        <v>161.972882019912</v>
+        <v>161.9728820199118</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893616</v>
+        <v>186.9185576893615</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808663</v>
+        <v>192.5552781808661</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246465</v>
+        <v>90.94452067246448</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293319</v>
+        <v>31.16496715293303</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177851</v>
+        <v>107.7947704177849</v>
       </c>
       <c r="W38" t="n">
-        <v>129.2834806650632</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X38" t="n">
-        <v>149.7736126261192</v>
+        <v>149.7736126261191</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037038</v>
+        <v>166.2804506037036</v>
       </c>
     </row>
     <row r="39">
@@ -3582,25 +3582,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>117.7351293026358</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>37.68043736163899</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.885685723477293</v>
+        <v>5.885685723477122</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>12.84309909707531</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3676,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>23.97070196780729</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>38.51542706977951</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.640846990729211</v>
+        <v>2.640846990729041</v>
       </c>
       <c r="U40" t="n">
-        <v>66.29327848220234</v>
+        <v>66.29327848220217</v>
       </c>
       <c r="V40" t="n">
-        <v>32.18015527147821</v>
+        <v>32.18015527147804</v>
       </c>
       <c r="W40" t="n">
-        <v>66.56551028424121</v>
+        <v>66.56551028424104</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336687364</v>
+        <v>5.752167336687194</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.48612903758591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111308</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186578</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683332</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E41" t="n">
-        <v>161.972882019912</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F41" t="n">
         <v>186.9185576893616</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808663</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246465</v>
+        <v>90.94452067246456</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293319</v>
+        <v>31.16496715293312</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177851</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650632</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X41" t="n">
         <v>149.7736126261192</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037038</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="42">
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>71.9272554982017</v>
       </c>
       <c r="U42" t="n">
         <v>225.8431737758271</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>173.0522130321506</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>62.48612903758593</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990729211</v>
+        <v>65.12697602831548</v>
       </c>
       <c r="U43" t="n">
-        <v>66.29327848220234</v>
+        <v>66.29327848220225</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147821</v>
+        <v>32.18015527147813</v>
       </c>
       <c r="W43" t="n">
-        <v>66.56551028424121</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336687364</v>
+        <v>5.752167336687279</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111308</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186578</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683332</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E44" t="n">
-        <v>161.972882019912</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F44" t="n">
         <v>186.9185576893616</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808663</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246465</v>
+        <v>90.94452067246456</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293319</v>
+        <v>31.16496715293311</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177851</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650632</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X44" t="n">
         <v>149.7736126261192</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037038</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="45">
@@ -4056,16 +4056,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>5.885685723477293</v>
+        <v>5.885685723477208</v>
       </c>
       <c r="V45" t="n">
-        <v>12.84309909707548</v>
+        <v>205.4665040586776</v>
       </c>
       <c r="W45" t="n">
-        <v>75.08620276351419</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>38.51542706977951</v>
+        <v>15.77593622111963</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>26.61154895853561</v>
+        <v>2.640846990729126</v>
       </c>
       <c r="U46" t="n">
-        <v>66.29327848220234</v>
+        <v>66.29327848220225</v>
       </c>
       <c r="V46" t="n">
-        <v>32.18015527147821</v>
+        <v>32.18015527147813</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424121</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336687364</v>
+        <v>5.752167336687279</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>986.9867105355478</v>
+        <v>710.0830737825141</v>
       </c>
       <c r="C11" t="n">
-        <v>986.9867105355478</v>
+        <v>470.1996636071405</v>
       </c>
       <c r="D11" t="n">
-        <v>757.8001186938354</v>
+        <v>470.1996636071405</v>
       </c>
       <c r="E11" t="n">
-        <v>501.0909728606293</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="F11" t="n">
-        <v>501.0909728606293</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="G11" t="n">
-        <v>213.4905177739342</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="H11" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I11" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006792</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634141</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838411</v>
+        <v>419.6428849838412</v>
       </c>
       <c r="M11" t="n">
-        <v>676.595713496534</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893067</v>
+        <v>942.3201157893062</v>
       </c>
       <c r="O11" t="n">
         <v>1179.900872569998</v>
@@ -5066,25 +5066,25 @@
         <v>1426.359574180211</v>
       </c>
       <c r="S11" t="n">
-        <v>1408.525954683112</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="T11" t="n">
-        <v>1324.592182379937</v>
+        <v>1324.592182379936</v>
       </c>
       <c r="U11" t="n">
-        <v>1324.592182379937</v>
+        <v>1200.012243483072</v>
       </c>
       <c r="V11" t="n">
-        <v>1324.592182379937</v>
+        <v>1200.012243483072</v>
       </c>
       <c r="W11" t="n">
-        <v>1100.902633874861</v>
+        <v>976.322694977996</v>
       </c>
       <c r="X11" t="n">
-        <v>1100.902633874861</v>
+        <v>976.322694977996</v>
       </c>
       <c r="Y11" t="n">
-        <v>1100.902633874861</v>
+        <v>967.6038070815979</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>149.5140903116501</v>
+        <v>327.2060256686256</v>
       </c>
       <c r="C12" t="n">
-        <v>104.1401677955612</v>
+        <v>281.8321031525365</v>
       </c>
       <c r="D12" t="n">
-        <v>84.28486489934815</v>
+        <v>261.9768002563233</v>
       </c>
       <c r="E12" t="n">
-        <v>54.12651665893083</v>
+        <v>102.7393452508678</v>
       </c>
       <c r="F12" t="n">
-        <v>36.67106545085397</v>
+        <v>85.28389404279082</v>
       </c>
       <c r="G12" t="n">
-        <v>28.52719148360423</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="H12" t="n">
-        <v>28.52719148360423</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="I12" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J12" t="n">
         <v>42.58127776197358</v>
@@ -5124,13 +5124,13 @@
         <v>144.7567744385589</v>
       </c>
       <c r="L12" t="n">
-        <v>328.4668801148409</v>
+        <v>328.4668801148408</v>
       </c>
       <c r="M12" t="n">
-        <v>562.2047765654394</v>
+        <v>562.2047765654393</v>
       </c>
       <c r="N12" t="n">
-        <v>816.5376645420149</v>
+        <v>816.5376645420147</v>
       </c>
       <c r="O12" t="n">
         <v>1026.98277387907</v>
@@ -5139,31 +5139,31 @@
         <v>1176.550461047348</v>
       </c>
       <c r="Q12" t="n">
-        <v>1226.613302561491</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="R12" t="n">
-        <v>1226.613302561491</v>
+        <v>1173.080926010104</v>
       </c>
       <c r="S12" t="n">
-        <v>1081.20351170244</v>
+        <v>1050.181326407951</v>
       </c>
       <c r="T12" t="n">
-        <v>885.0945892787665</v>
+        <v>983.1515107493153</v>
       </c>
       <c r="U12" t="n">
-        <v>786.0492780884238</v>
+        <v>884.1061995589724</v>
       </c>
       <c r="V12" t="n">
-        <v>679.9762766217192</v>
+        <v>778.0331980922678</v>
       </c>
       <c r="W12" t="n">
-        <v>425.7389198935176</v>
+        <v>652.8749481291042</v>
       </c>
       <c r="X12" t="n">
-        <v>346.9665264530229</v>
+        <v>574.1025546886094</v>
       </c>
       <c r="Y12" t="n">
-        <v>188.6503205666799</v>
+        <v>495.4213626886936</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.9587444361476</v>
+        <v>188.9587444361484</v>
       </c>
       <c r="C13" t="n">
-        <v>149.1016682732789</v>
+        <v>149.1016682732796</v>
       </c>
       <c r="D13" t="n">
-        <v>128.0641356259813</v>
+        <v>128.0641356259819</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2301488086264</v>
+        <v>109.2301488086268</v>
       </c>
       <c r="F13" t="n">
-        <v>91.4193080757542</v>
+        <v>91.41930807575447</v>
       </c>
       <c r="G13" t="n">
-        <v>52.07468323515441</v>
+        <v>52.07468323515454</v>
       </c>
       <c r="H13" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I13" t="n">
-        <v>28.52719148360423</v>
+        <v>38.4008673166437</v>
       </c>
       <c r="J13" t="n">
-        <v>116.9073512249364</v>
+        <v>126.7810270579758</v>
       </c>
       <c r="K13" t="n">
-        <v>234.0101879264577</v>
+        <v>269.5141466318127</v>
       </c>
       <c r="L13" t="n">
-        <v>284.6754397557885</v>
+        <v>446.6898310015572</v>
       </c>
       <c r="M13" t="n">
-        <v>467.8635595719163</v>
+        <v>629.8779508176849</v>
       </c>
       <c r="N13" t="n">
-        <v>657.5615365714357</v>
+        <v>693.0654952767903</v>
       </c>
       <c r="O13" t="n">
-        <v>822.1228047026468</v>
+        <v>828.8213861356639</v>
       </c>
       <c r="P13" t="n">
-        <v>962.1303294414826</v>
+        <v>968.8289108744996</v>
       </c>
       <c r="Q13" t="n">
-        <v>1042.397671093594</v>
+        <v>1049.096252526611</v>
       </c>
       <c r="R13" t="n">
-        <v>1049.096252526609</v>
+        <v>1049.096252526611</v>
       </c>
       <c r="S13" t="n">
-        <v>973.9262416880717</v>
+        <v>973.9262416880736</v>
       </c>
       <c r="T13" t="n">
-        <v>878.1585453792927</v>
+        <v>878.1585453792944</v>
       </c>
       <c r="U13" t="n">
-        <v>718.0954637255913</v>
+        <v>718.0954637255929</v>
       </c>
       <c r="V13" t="n">
-        <v>592.4900822847427</v>
+        <v>592.4900822847441</v>
       </c>
       <c r="W13" t="n">
-        <v>432.1520190128202</v>
+        <v>432.1520190128215</v>
       </c>
       <c r="X13" t="n">
-        <v>333.2415748798411</v>
+        <v>333.2415748798422</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.5281025013491</v>
+        <v>241.5281025013501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>997.6835288692088</v>
+        <v>782.9977708851993</v>
       </c>
       <c r="C14" t="n">
-        <v>757.8001186938353</v>
+        <v>782.9977708851993</v>
       </c>
       <c r="D14" t="n">
-        <v>757.8001186938353</v>
+        <v>782.9977708851993</v>
       </c>
       <c r="E14" t="n">
-        <v>501.0909728606293</v>
+        <v>782.9977708851993</v>
       </c>
       <c r="F14" t="n">
-        <v>501.0909728606293</v>
+        <v>501.0909728606298</v>
       </c>
       <c r="G14" t="n">
-        <v>213.4905177739341</v>
+        <v>213.4905177739344</v>
       </c>
       <c r="H14" t="n">
         <v>28.52719148360425</v>
@@ -5276,19 +5276,19 @@
         <v>28.52719148360425</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006784</v>
+        <v>83.71911784006807</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634142</v>
+        <v>217.1760266634146</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838414</v>
+        <v>419.6428849838418</v>
       </c>
       <c r="M14" t="n">
-        <v>676.5957134965342</v>
+        <v>676.5957134965345</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893069</v>
+        <v>942.3201157893071</v>
       </c>
       <c r="O14" t="n">
         <v>1179.900872569999</v>
@@ -5303,25 +5303,25 @@
         <v>1426.359574180212</v>
       </c>
       <c r="S14" t="n">
-        <v>1426.359574180212</v>
+        <v>1408.525954683112</v>
       </c>
       <c r="T14" t="n">
-        <v>1426.359574180212</v>
+        <v>1324.592182379937</v>
       </c>
       <c r="U14" t="n">
-        <v>1426.359574180212</v>
+        <v>1200.012243483073</v>
       </c>
       <c r="V14" t="n">
-        <v>1224.37579360168</v>
+        <v>1040.518504184283</v>
       </c>
       <c r="W14" t="n">
-        <v>1224.37579360168</v>
+        <v>1040.518504184283</v>
       </c>
       <c r="X14" t="n">
-        <v>1224.37579360168</v>
+        <v>1040.518504184283</v>
       </c>
       <c r="Y14" t="n">
-        <v>1224.37579360168</v>
+        <v>1040.518504184283</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>278.5931970766881</v>
+        <v>358.2282109631142</v>
       </c>
       <c r="C15" t="n">
-        <v>233.2192745605993</v>
+        <v>312.8542884470252</v>
       </c>
       <c r="D15" t="n">
-        <v>213.3639716643863</v>
+        <v>213.3639716643866</v>
       </c>
       <c r="E15" t="n">
-        <v>183.205623423969</v>
+        <v>183.2056234239691</v>
       </c>
       <c r="F15" t="n">
-        <v>36.67106545085394</v>
+        <v>165.7501722158921</v>
       </c>
       <c r="G15" t="n">
         <v>28.52719148360425</v>
@@ -5361,13 +5361,13 @@
         <v>144.7567744385589</v>
       </c>
       <c r="L15" t="n">
-        <v>328.4668801148409</v>
+        <v>328.4668801148408</v>
       </c>
       <c r="M15" t="n">
-        <v>562.2047765654395</v>
+        <v>562.2047765654393</v>
       </c>
       <c r="N15" t="n">
-        <v>816.5376645420151</v>
+        <v>816.5376645420147</v>
       </c>
       <c r="O15" t="n">
         <v>1026.98277387907</v>
@@ -5376,31 +5376,31 @@
         <v>1176.550461047348</v>
       </c>
       <c r="Q15" t="n">
-        <v>1226.613302561491</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="R15" t="n">
-        <v>1226.613302561491</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="S15" t="n">
-        <v>1210.282618467479</v>
+        <v>1210.282618467478</v>
       </c>
       <c r="T15" t="n">
-        <v>1063.617788922415</v>
+        <v>1014.173696043804</v>
       </c>
       <c r="U15" t="n">
-        <v>964.5724777320725</v>
+        <v>915.1283848534612</v>
       </c>
       <c r="V15" t="n">
-        <v>729.4203695003298</v>
+        <v>809.0553833867565</v>
       </c>
       <c r="W15" t="n">
-        <v>604.2621195371664</v>
+        <v>683.8971334235929</v>
       </c>
       <c r="X15" t="n">
-        <v>396.4106193316337</v>
+        <v>605.1247399830982</v>
       </c>
       <c r="Y15" t="n">
-        <v>317.7294273317179</v>
+        <v>397.3644412181442</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.9587444361474</v>
+        <v>188.9587444361485</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1016682732786</v>
+        <v>149.1016682732796</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0641356259812</v>
+        <v>128.0641356259819</v>
       </c>
       <c r="E16" t="n">
-        <v>109.2301488086263</v>
+        <v>109.2301488086268</v>
       </c>
       <c r="F16" t="n">
-        <v>91.41930807575413</v>
+        <v>91.4193080757545</v>
       </c>
       <c r="G16" t="n">
-        <v>52.07468323515438</v>
+        <v>52.07468323515457</v>
       </c>
       <c r="H16" t="n">
         <v>28.52719148360425</v>
@@ -5434,52 +5434,52 @@
         <v>28.52719148360425</v>
       </c>
       <c r="J16" t="n">
-        <v>97.9756497856348</v>
+        <v>116.9073512249363</v>
       </c>
       <c r="K16" t="n">
-        <v>114.198336819058</v>
+        <v>259.6404707987732</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3740211888027</v>
+        <v>436.8161551685177</v>
       </c>
       <c r="M16" t="n">
-        <v>474.5621410049306</v>
+        <v>601.0725735453475</v>
       </c>
       <c r="N16" t="n">
-        <v>664.26011800445</v>
+        <v>664.2601180044529</v>
       </c>
       <c r="O16" t="n">
-        <v>828.8213861356612</v>
+        <v>828.8213861356639</v>
       </c>
       <c r="P16" t="n">
-        <v>968.828910874497</v>
+        <v>968.8289108744996</v>
       </c>
       <c r="Q16" t="n">
-        <v>1049.096252526609</v>
+        <v>1049.096252526611</v>
       </c>
       <c r="R16" t="n">
-        <v>1049.096252526609</v>
+        <v>1049.096252526611</v>
       </c>
       <c r="S16" t="n">
-        <v>973.9262416880713</v>
+        <v>973.9262416880737</v>
       </c>
       <c r="T16" t="n">
-        <v>878.1585453792923</v>
+        <v>878.1585453792945</v>
       </c>
       <c r="U16" t="n">
-        <v>718.0954637255909</v>
+        <v>718.095463725593</v>
       </c>
       <c r="V16" t="n">
-        <v>592.4900822847422</v>
+        <v>592.4900822847442</v>
       </c>
       <c r="W16" t="n">
-        <v>432.1520190128198</v>
+        <v>432.1520190128215</v>
       </c>
       <c r="X16" t="n">
-        <v>333.2415748798407</v>
+        <v>333.2415748798422</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.5281025013488</v>
+        <v>241.5281025013501</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646662</v>
+        <v>810.9578074646658</v>
       </c>
       <c r="C17" t="n">
         <v>687.3775825010968</v>
@@ -5549,16 +5549,16 @@
         <v>1418.082820495153</v>
       </c>
       <c r="V17" t="n">
-        <v>1332.402225128425</v>
+        <v>1332.402225128424</v>
       </c>
       <c r="W17" t="n">
-        <v>1225.015861835153</v>
+        <v>1225.015861835152</v>
       </c>
       <c r="X17" t="n">
         <v>1096.932395550915</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.1753555519457</v>
+        <v>952.1753555519452</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>187.7646464890597</v>
+        <v>202.9802207647313</v>
       </c>
       <c r="C18" t="n">
-        <v>187.7646464890597</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="D18" t="n">
-        <v>187.7646464890597</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="E18" t="n">
         <v>28.52719148360425</v>
@@ -5616,28 +5616,28 @@
         <v>1226.61330256149</v>
       </c>
       <c r="R18" t="n">
-        <v>1226.61330256149</v>
+        <v>1173.080926010104</v>
       </c>
       <c r="S18" t="n">
-        <v>1226.61330256149</v>
+        <v>1027.671135151053</v>
       </c>
       <c r="T18" t="n">
-        <v>1030.504380137816</v>
+        <v>831.5622127273798</v>
       </c>
       <c r="U18" t="n">
-        <v>802.3799621824356</v>
+        <v>831.5622127273798</v>
       </c>
       <c r="V18" t="n">
-        <v>649.8535034227941</v>
+        <v>596.4101044956371</v>
       </c>
       <c r="W18" t="n">
-        <v>395.6161466945925</v>
+        <v>587.5550397442778</v>
       </c>
       <c r="X18" t="n">
-        <v>187.7646464890597</v>
+        <v>379.703539538745</v>
       </c>
       <c r="Y18" t="n">
-        <v>187.7646464890597</v>
+        <v>202.9802207647313</v>
       </c>
     </row>
     <row r="19">
@@ -5692,16 +5692,16 @@
         <v>266.8282898703964</v>
       </c>
       <c r="Q19" t="n">
-        <v>266.8282898703964</v>
+        <v>219.6462769244704</v>
       </c>
       <c r="R19" t="n">
-        <v>266.8282898703964</v>
+        <v>219.6462769244704</v>
       </c>
       <c r="S19" t="n">
-        <v>266.8282898703964</v>
+        <v>219.6462769244704</v>
       </c>
       <c r="T19" t="n">
-        <v>266.8282898703964</v>
+        <v>125.6241622146645</v>
       </c>
       <c r="U19" t="n">
         <v>81.86426577276721</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646661</v>
+        <v>810.9578074646658</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010966</v>
+        <v>687.3775825010968</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711884</v>
+        <v>574.4941758711885</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497865</v>
+        <v>434.0882152497866</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370212</v>
+        <v>268.4846024370213</v>
       </c>
       <c r="G20" t="n">
         <v>97.18733256213011</v>
@@ -5750,16 +5750,16 @@
         <v>28.52719148360425</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006807</v>
+        <v>83.71911784006863</v>
       </c>
       <c r="K20" t="n">
-        <v>217.1760266634146</v>
+        <v>217.1760266634149</v>
       </c>
       <c r="L20" t="n">
         <v>419.6428849838421</v>
       </c>
       <c r="M20" t="n">
-        <v>676.5957134965348</v>
+        <v>676.5957134965349</v>
       </c>
       <c r="N20" t="n">
         <v>942.3201157893075</v>
@@ -5795,7 +5795,7 @@
         <v>1096.932395550915</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.1753555519455</v>
+        <v>952.1753555519452</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>276.2681314891066</v>
+        <v>499.3339893621703</v>
       </c>
       <c r="C21" t="n">
-        <v>276.2681314891066</v>
+        <v>324.8809600810433</v>
       </c>
       <c r="D21" t="n">
-        <v>127.3337218278554</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="E21" t="n">
-        <v>127.3337218278554</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="F21" t="n">
-        <v>127.3337218278554</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="G21" t="n">
-        <v>127.3337218278554</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="H21" t="n">
-        <v>28.52719148360425</v>
+        <v>77.14002007554097</v>
       </c>
       <c r="I21" t="n">
         <v>28.52719148360425</v>
@@ -5856,25 +5856,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S21" t="n">
-        <v>1226.61330256149</v>
+        <v>1081.20351170244</v>
       </c>
       <c r="T21" t="n">
-        <v>1030.504380137816</v>
+        <v>904.5288090889786</v>
       </c>
       <c r="U21" t="n">
-        <v>802.3799621824356</v>
+        <v>676.4043911335978</v>
       </c>
       <c r="V21" t="n">
-        <v>567.2278539506929</v>
+        <v>676.4043911335978</v>
       </c>
       <c r="W21" t="n">
-        <v>484.1196316946395</v>
+        <v>667.5493263822384</v>
       </c>
       <c r="X21" t="n">
-        <v>276.2681314891066</v>
+        <v>667.5493263822384</v>
       </c>
       <c r="Y21" t="n">
-        <v>276.2681314891066</v>
+        <v>667.5493263822384</v>
       </c>
     </row>
     <row r="22">
@@ -5935,22 +5935,22 @@
         <v>266.8282898703964</v>
       </c>
       <c r="S22" t="n">
-        <v>125.6241622146645</v>
+        <v>266.8282898703964</v>
       </c>
       <c r="T22" t="n">
-        <v>125.6241622146645</v>
+        <v>266.8282898703964</v>
       </c>
       <c r="U22" t="n">
-        <v>81.86426577276721</v>
+        <v>223.0683934284991</v>
       </c>
       <c r="V22" t="n">
-        <v>72.5620695437226</v>
+        <v>213.7661971994546</v>
       </c>
       <c r="W22" t="n">
-        <v>28.52719148360425</v>
+        <v>169.7313191393362</v>
       </c>
       <c r="X22" t="n">
-        <v>28.52719148360425</v>
+        <v>169.7313191393362</v>
       </c>
       <c r="Y22" t="n">
         <v>28.52719148360425</v>
@@ -5966,16 +5966,16 @@
         <v>810.9578074646658</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010965</v>
+        <v>687.3775825010968</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711883</v>
+        <v>574.4941758711885</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497863</v>
+        <v>434.0882152497866</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370211</v>
+        <v>268.4846024370213</v>
       </c>
       <c r="G23" t="n">
         <v>97.18733256213011</v>
@@ -6017,7 +6017,7 @@
         <v>1426.359574180212</v>
       </c>
       <c r="T23" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="U23" t="n">
         <v>1418.082820495153</v>
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28.52719148360425</v>
+        <v>630.6529730596139</v>
       </c>
       <c r="C24" t="n">
-        <v>28.52719148360425</v>
+        <v>630.6529730596139</v>
       </c>
       <c r="D24" t="n">
-        <v>28.52719148360425</v>
+        <v>481.7185633983626</v>
       </c>
       <c r="E24" t="n">
-        <v>28.52719148360425</v>
+        <v>322.4811083929071</v>
       </c>
       <c r="F24" t="n">
-        <v>28.52719148360425</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="G24" t="n">
-        <v>28.52719148360425</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="H24" t="n">
-        <v>28.52719148360425</v>
+        <v>77.14002007554097</v>
       </c>
       <c r="I24" t="n">
         <v>28.52719148360425</v>
       </c>
       <c r="J24" t="n">
-        <v>42.5812777619736</v>
+        <v>42.58127776197361</v>
       </c>
       <c r="K24" t="n">
         <v>144.7567744385589</v>
@@ -6093,25 +6093,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S24" t="n">
-        <v>1226.61330256149</v>
+        <v>1081.20351170244</v>
       </c>
       <c r="T24" t="n">
-        <v>1226.61330256149</v>
+        <v>1042.875483062784</v>
       </c>
       <c r="U24" t="n">
-        <v>1101.743792434103</v>
+        <v>1042.875483062784</v>
       </c>
       <c r="V24" t="n">
-        <v>866.5916842023607</v>
+        <v>807.7233748310414</v>
       </c>
       <c r="W24" t="n">
-        <v>612.354327474159</v>
+        <v>798.868310079682</v>
       </c>
       <c r="X24" t="n">
-        <v>404.5028272686262</v>
+        <v>798.868310079682</v>
       </c>
       <c r="Y24" t="n">
-        <v>196.7425285036723</v>
+        <v>798.868310079682</v>
       </c>
     </row>
     <row r="25">
@@ -6166,25 +6166,25 @@
         <v>266.8282898703964</v>
       </c>
       <c r="Q25" t="n">
-        <v>219.6462769244704</v>
+        <v>266.8282898703964</v>
       </c>
       <c r="R25" t="n">
-        <v>219.6462769244704</v>
+        <v>144.5837728747847</v>
       </c>
       <c r="S25" t="n">
-        <v>219.6462769244704</v>
+        <v>144.5837728747847</v>
       </c>
       <c r="T25" t="n">
-        <v>219.6462769244704</v>
+        <v>144.5837728747847</v>
       </c>
       <c r="U25" t="n">
-        <v>175.8863804825732</v>
+        <v>100.8238764328874</v>
       </c>
       <c r="V25" t="n">
-        <v>166.5841842535286</v>
+        <v>91.52168020384282</v>
       </c>
       <c r="W25" t="n">
-        <v>122.5493061934102</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="X25" t="n">
         <v>28.52719148360425</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607696</v>
+        <v>1619.642009607694</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879088</v>
+        <v>1366.982677879087</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.020164484142</v>
+        <v>1125.020164484141</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970977017</v>
+        <v>855.5350970977011</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198983</v>
+        <v>560.8523775198978</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799684</v>
+        <v>260.4760008799681</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640429</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="I26" t="n">
-        <v>74.83913835551112</v>
+        <v>74.83913835551125</v>
       </c>
       <c r="J26" t="n">
-        <v>411.4254655584169</v>
+        <v>411.4254655584172</v>
       </c>
       <c r="K26" t="n">
-        <v>658.8711262078523</v>
+        <v>979.7750846533058</v>
       </c>
       <c r="L26" t="n">
-        <v>975.3267363543687</v>
+        <v>1272.858859678596</v>
       </c>
       <c r="M26" t="n">
-        <v>1346.268316693151</v>
+        <v>1643.800440017379</v>
       </c>
       <c r="N26" t="n">
-        <v>1725.981470812012</v>
+        <v>2023.51359413624</v>
       </c>
       <c r="O26" t="n">
-        <v>2077.550979418793</v>
+        <v>2313.088302537699</v>
       </c>
       <c r="P26" t="n">
-        <v>2595.345732792085</v>
+        <v>2595.345732792082</v>
       </c>
       <c r="Q26" t="n">
-        <v>2997.716348553399</v>
+        <v>2997.716348553397</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820214</v>
+        <v>3136.837651820212</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.22811076988</v>
+        <v>3106.228110769878</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.518416913471</v>
+        <v>3009.518416913469</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.162556463374</v>
+        <v>2872.162556463371</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331607</v>
+        <v>2657.402854331605</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273297</v>
+        <v>2420.937384273295</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.774811224021</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.938664460014</v>
+        <v>1889.938664460012</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>247.6032596306207</v>
+        <v>378.5530518569297</v>
       </c>
       <c r="C27" t="n">
-        <v>189.4534155612977</v>
+        <v>320.4032077876069</v>
       </c>
       <c r="D27" t="n">
-        <v>156.8221911118505</v>
+        <v>273.1253763236542</v>
       </c>
       <c r="E27" t="n">
-        <v>113.8879213181991</v>
+        <v>113.8879213181987</v>
       </c>
       <c r="F27" t="n">
-        <v>83.65654855688813</v>
+        <v>83.65654855688791</v>
       </c>
       <c r="G27" t="n">
-        <v>62.73675303640429</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="H27" t="n">
-        <v>62.73675303640429</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640429</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J27" t="n">
-        <v>76.79083931477365</v>
+        <v>76.79083931477359</v>
       </c>
       <c r="K27" t="n">
-        <v>178.966335991359</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L27" t="n">
-        <v>362.6764416676409</v>
+        <v>362.6764416676408</v>
       </c>
       <c r="M27" t="n">
-        <v>596.4143381182394</v>
+        <v>596.4143381182392</v>
       </c>
       <c r="N27" t="n">
         <v>850.7472260948148</v>
@@ -6327,28 +6327,28 @@
         <v>1260.82286411429</v>
       </c>
       <c r="R27" t="n">
-        <v>1260.82286411429</v>
+        <v>1207.290487562904</v>
       </c>
       <c r="S27" t="n">
-        <v>1231.716258467044</v>
+        <v>1178.183881915658</v>
       </c>
       <c r="T27" t="n">
-        <v>1151.910521255174</v>
+        <v>1098.378144703788</v>
       </c>
       <c r="U27" t="n">
-        <v>1040.089288511597</v>
+        <v>986.5569119602118</v>
       </c>
       <c r="V27" t="n">
-        <v>921.2403654916588</v>
+        <v>867.7079889402733</v>
       </c>
       <c r="W27" t="n">
-        <v>783.3061939752613</v>
+        <v>729.7738174238759</v>
       </c>
       <c r="X27" t="n">
-        <v>623.5788954156426</v>
+        <v>638.2255024301473</v>
       </c>
       <c r="Y27" t="n">
-        <v>415.8185966506887</v>
+        <v>546.7683888769977</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147548</v>
+        <v>302.5256054147536</v>
       </c>
       <c r="C28" t="n">
-        <v>249.892607698652</v>
+        <v>249.8926076986509</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981203</v>
+        <v>216.0791534981194</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275313</v>
+        <v>184.4692451275305</v>
       </c>
       <c r="F28" t="n">
-        <v>153.882482841425</v>
+        <v>153.8824828414244</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475911</v>
+        <v>101.7619364475907</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280682</v>
+        <v>65.4385231428066</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640429</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J28" t="n">
-        <v>105.6461468555955</v>
+        <v>138.5952320634119</v>
       </c>
       <c r="K28" t="n">
-        <v>227.5451625702247</v>
+        <v>154.817919096835</v>
       </c>
       <c r="L28" t="n">
-        <v>439.0603689256943</v>
+        <v>366.3331254523047</v>
       </c>
       <c r="M28" t="n">
-        <v>672.4626205017594</v>
+        <v>713.724128854459</v>
       </c>
       <c r="N28" t="n">
-        <v>905.7497046368819</v>
+        <v>876.1182274595749</v>
       </c>
       <c r="O28" t="n">
-        <v>1105.211789929903</v>
+        <v>1075.580312752596</v>
       </c>
       <c r="P28" t="n">
-        <v>1252.365379809225</v>
+        <v>1203.066156777107</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.811817714897</v>
+        <v>1270.811817714894</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.87048593109</v>
+        <v>1264.870485931087</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539318</v>
+        <v>1176.924553539315</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677305</v>
+        <v>1068.380935677302</v>
       </c>
       <c r="U28" t="n">
-        <v>895.5419324703691</v>
+        <v>895.541932470367</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762863</v>
+        <v>757.1606294762844</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511298</v>
+        <v>584.046644651128</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649165</v>
+        <v>472.3602789649149</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331905</v>
+        <v>367.870885033189</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.642009607696</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C29" t="n">
         <v>1366.982677879088</v>
@@ -6446,64 +6446,64 @@
         <v>1125.020164484142</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970977017</v>
+        <v>855.5350970977015</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198984</v>
+        <v>560.8523775198983</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799683</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640429</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I29" t="n">
-        <v>74.83913835551121</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J29" t="n">
-        <v>244.019816538064</v>
+        <v>334.4672988334684</v>
       </c>
       <c r="K29" t="n">
-        <v>491.4654771874995</v>
+        <v>902.816917928357</v>
       </c>
       <c r="L29" t="n">
-        <v>807.921087334016</v>
+        <v>1219.272528074874</v>
       </c>
       <c r="M29" t="n">
-        <v>1178.862667672798</v>
+        <v>1476.225356587566</v>
       </c>
       <c r="N29" t="n">
-        <v>1590.12648597043</v>
+        <v>1855.938510706428</v>
       </c>
       <c r="O29" t="n">
-        <v>2318.688174027328</v>
+        <v>2207.508019313209</v>
       </c>
       <c r="P29" t="n">
-        <v>2919.526325371479</v>
+        <v>2595.345732792083</v>
       </c>
       <c r="Q29" t="n">
-        <v>3111.705100379488</v>
+        <v>2997.716348553397</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820214</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.22811076988</v>
+        <v>3106.228110769879</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.518416913471</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463373</v>
+        <v>2872.162556463372</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331607</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273297</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.774811224021</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y29" t="n">
         <v>1889.938664460013</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>540.8377217266329</v>
+        <v>247.6032596306198</v>
       </c>
       <c r="C30" t="n">
-        <v>482.6878776573101</v>
+        <v>189.453415561297</v>
       </c>
       <c r="D30" t="n">
-        <v>450.056653207863</v>
+        <v>156.82219111185</v>
       </c>
       <c r="E30" t="n">
-        <v>395.107120333744</v>
+        <v>113.8879213181987</v>
       </c>
       <c r="F30" t="n">
-        <v>248.5725623606289</v>
+        <v>83.65654855688793</v>
       </c>
       <c r="G30" t="n">
-        <v>111.349581628341</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="H30" t="n">
-        <v>111.349581628341</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640429</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477365</v>
+        <v>76.79083931477362</v>
       </c>
       <c r="K30" t="n">
         <v>178.966335991359</v>
@@ -6564,28 +6564,28 @@
         <v>1260.82286411429</v>
       </c>
       <c r="R30" t="n">
-        <v>1253.271972220804</v>
+        <v>1260.82286411429</v>
       </c>
       <c r="S30" t="n">
-        <v>1224.165366573557</v>
+        <v>1231.716258467044</v>
       </c>
       <c r="T30" t="n">
-        <v>1144.359629361688</v>
+        <v>1035.60733604337</v>
       </c>
       <c r="U30" t="n">
-        <v>1032.538396618111</v>
+        <v>923.7861032997938</v>
       </c>
       <c r="V30" t="n">
-        <v>913.6894735981726</v>
+        <v>804.9371802798553</v>
       </c>
       <c r="W30" t="n">
-        <v>775.7553020817752</v>
+        <v>550.6998235516537</v>
       </c>
       <c r="X30" t="n">
-        <v>684.2069870880465</v>
+        <v>459.1515085579251</v>
       </c>
       <c r="Y30" t="n">
-        <v>592.7498735348968</v>
+        <v>367.6943950047755</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147542</v>
+        <v>302.5256054147536</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986515</v>
+        <v>249.8926076986509</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981199</v>
+        <v>216.0791534981194</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275309</v>
+        <v>184.4692451275306</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414247</v>
+        <v>153.8824828414245</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475909</v>
+        <v>101.7619364475907</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280673</v>
+        <v>65.43852314280662</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640429</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J31" t="n">
-        <v>171.8951109729079</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="K31" t="n">
-        <v>188.1177980063311</v>
+        <v>298.6245205771228</v>
       </c>
       <c r="L31" t="n">
-        <v>238.7830498356618</v>
+        <v>379.305679793549</v>
       </c>
       <c r="M31" t="n">
-        <v>559.3819205361688</v>
+        <v>726.6966831957034</v>
       </c>
       <c r="N31" t="n">
-        <v>906.6577564973805</v>
+        <v>903.8729794808982</v>
       </c>
       <c r="O31" t="n">
-        <v>1105.211789929901</v>
+        <v>941.9238150716953</v>
       </c>
       <c r="P31" t="n">
-        <v>1252.365379809223</v>
+        <v>1203.066156777107</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714895</v>
+        <v>1270.811817714894</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931088</v>
+        <v>1264.870485931087</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539316</v>
+        <v>1176.924553539315</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677303</v>
+        <v>1068.380935677302</v>
       </c>
       <c r="U31" t="n">
-        <v>895.541932470368</v>
+        <v>895.5419324703671</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762853</v>
+        <v>757.1606294762845</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511289</v>
+        <v>584.0466446511281</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649157</v>
+        <v>472.360278964915</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331898</v>
+        <v>367.8708850331891</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>1619.642009607695</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879088</v>
+        <v>1366.982677879087</v>
       </c>
       <c r="D32" t="n">
         <v>1125.020164484141</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977015</v>
+        <v>855.5350970977013</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198983</v>
+        <v>560.852377519898</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799683</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640429</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="I32" t="n">
-        <v>74.8391383555112</v>
+        <v>74.83913835551124</v>
       </c>
       <c r="J32" t="n">
-        <v>244.019816538064</v>
+        <v>244.0198165380641</v>
       </c>
       <c r="K32" t="n">
-        <v>491.4654771874995</v>
+        <v>491.4654771874997</v>
       </c>
       <c r="L32" t="n">
-        <v>912.012756359651</v>
+        <v>1006.272090209596</v>
       </c>
       <c r="M32" t="n">
-        <v>1688.380075185154</v>
+        <v>1377.213670548378</v>
       </c>
       <c r="N32" t="n">
-        <v>2464.747394010657</v>
+        <v>1756.92682466724</v>
       </c>
       <c r="O32" t="n">
-        <v>2702.328150791349</v>
+        <v>2108.496333274021</v>
       </c>
       <c r="P32" t="n">
-        <v>2870.596829219643</v>
+        <v>2709.334484618172</v>
       </c>
       <c r="Q32" t="n">
-        <v>3062.775604227651</v>
+        <v>2997.716348553397</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820214</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.22811076988</v>
+        <v>3106.228110769879</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913471</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463373</v>
+        <v>2872.162556463372</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331607</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273297</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.774811224021</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460013</v>
+        <v>1889.938664460012</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>480.2096300542286</v>
+        <v>432.0854284083156</v>
       </c>
       <c r="C33" t="n">
-        <v>305.7566007731016</v>
+        <v>354.3694293650381</v>
       </c>
       <c r="D33" t="n">
-        <v>156.8221911118503</v>
+        <v>205.4350197037868</v>
       </c>
       <c r="E33" t="n">
-        <v>113.8879213181989</v>
+        <v>162.5007499101355</v>
       </c>
       <c r="F33" t="n">
-        <v>83.65654855688805</v>
+        <v>132.2693771488247</v>
       </c>
       <c r="G33" t="n">
-        <v>62.73675303640429</v>
+        <v>111.349581628341</v>
       </c>
       <c r="H33" t="n">
-        <v>62.73675303640429</v>
+        <v>111.349581628341</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640429</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79083931477365</v>
+        <v>76.79083931477362</v>
       </c>
       <c r="K33" t="n">
         <v>178.966335991359</v>
@@ -6807,22 +6807,22 @@
         <v>1231.716258467044</v>
       </c>
       <c r="T33" t="n">
-        <v>1151.910521255174</v>
+        <v>1151.910521255175</v>
       </c>
       <c r="U33" t="n">
-        <v>971.9103049457068</v>
+        <v>1040.089288511598</v>
       </c>
       <c r="V33" t="n">
-        <v>853.0613819257683</v>
+        <v>921.2403654916594</v>
       </c>
       <c r="W33" t="n">
-        <v>715.1272104093708</v>
+        <v>783.306193975262</v>
       </c>
       <c r="X33" t="n">
-        <v>623.5788954156421</v>
+        <v>575.4546937697291</v>
       </c>
       <c r="Y33" t="n">
-        <v>532.1217818624924</v>
+        <v>483.9975802165794</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147543</v>
+        <v>302.5256054147538</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986515</v>
+        <v>249.8926076986511</v>
       </c>
       <c r="D34" t="n">
-        <v>216.07915349812</v>
+        <v>216.0791534981196</v>
       </c>
       <c r="E34" t="n">
-        <v>184.469245127531</v>
+        <v>184.4692451275307</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414248</v>
+        <v>153.8824828414245</v>
       </c>
       <c r="G34" t="n">
-        <v>101.761936447591</v>
+        <v>101.7619364475908</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280674</v>
+        <v>65.43852314280664</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640429</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="J34" t="n">
-        <v>171.8951109729079</v>
+        <v>62.73675303640426</v>
       </c>
       <c r="K34" t="n">
-        <v>293.7941266875371</v>
+        <v>298.6245205771227</v>
       </c>
       <c r="L34" t="n">
-        <v>458.448130342957</v>
+        <v>510.1397269325923</v>
       </c>
       <c r="M34" t="n">
-        <v>629.1145694447601</v>
+        <v>566.8174142083062</v>
       </c>
       <c r="N34" t="n">
-        <v>806.2908657299547</v>
+        <v>887.0015357794041</v>
       </c>
       <c r="O34" t="n">
-        <v>958.3304531468411</v>
+        <v>1086.463621072425</v>
       </c>
       <c r="P34" t="n">
-        <v>1138.376627983135</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714896</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931088</v>
+        <v>1264.870485931087</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539317</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677304</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703682</v>
+        <v>895.5419324703673</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762855</v>
+        <v>757.1606294762847</v>
       </c>
       <c r="W34" t="n">
-        <v>584.046644651129</v>
+        <v>584.0466446511283</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649158</v>
+        <v>472.3602789649152</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331898</v>
+        <v>367.8708850331893</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>955.8582442291588</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497068</v>
+        <v>809.0750081497066</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039157</v>
+        <v>672.9885904039156</v>
       </c>
       <c r="E35" t="n">
         <v>509.3796186666309</v>
@@ -6926,58 +6926,58 @@
         <v>320.5729947379828</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472088</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I35" t="n">
-        <v>52.06174544572035</v>
+        <v>150.0811082176441</v>
       </c>
       <c r="J35" t="n">
-        <v>107.2536718021839</v>
+        <v>205.2730345741077</v>
       </c>
       <c r="K35" t="n">
-        <v>240.7105806255302</v>
+        <v>338.7299433974539</v>
       </c>
       <c r="L35" t="n">
-        <v>443.1774389459574</v>
+        <v>541.196801717881</v>
       </c>
       <c r="M35" t="n">
-        <v>700.1302674586502</v>
+        <v>798.1496302305738</v>
       </c>
       <c r="N35" t="n">
-        <v>965.8546697514228</v>
+        <v>1063.874032523346</v>
       </c>
       <c r="O35" t="n">
-        <v>1203.435426532114</v>
+        <v>1301.454789304038</v>
       </c>
       <c r="P35" t="n">
-        <v>1371.704104960408</v>
+        <v>1469.723467732332</v>
       </c>
       <c r="Q35" t="n">
-        <v>1449.894128142328</v>
+        <v>1547.913490914251</v>
       </c>
       <c r="R35" t="n">
-        <v>1627.725337080627</v>
+        <v>1627.725337080626</v>
       </c>
       <c r="S35" t="n">
-        <v>1701.494087242932</v>
+        <v>1701.494087242931</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U35" t="n">
         <v>1678.99831283906</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356449</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.525331947294</v>
+        <v>1439.525331947293</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547174</v>
+        <v>1288.238854547173</v>
       </c>
       <c r="Y35" t="n">
         <v>1120.278803432321</v>
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.20956155280005</v>
+        <v>504.1315584682933</v>
       </c>
       <c r="C36" t="n">
-        <v>34.20956155280005</v>
+        <v>329.6785291871663</v>
       </c>
       <c r="D36" t="n">
-        <v>34.20956155280005</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="E36" t="n">
-        <v>34.20956155280005</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="F36" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="G36" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116941</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K36" t="n">
         <v>150.4391445077547</v>
@@ -7047,19 +7047,19 @@
         <v>1232.295672630686</v>
       </c>
       <c r="U36" t="n">
-        <v>1004.171254675305</v>
+        <v>1226.350535536265</v>
       </c>
       <c r="V36" t="n">
-        <v>769.0191464435627</v>
+        <v>1213.377708165482</v>
       </c>
       <c r="W36" t="n">
-        <v>514.7817897153611</v>
+        <v>1087.958694458848</v>
       </c>
       <c r="X36" t="n">
-        <v>306.9302895098283</v>
+        <v>880.1071942533151</v>
       </c>
       <c r="Y36" t="n">
-        <v>99.16999074487438</v>
+        <v>672.3468954883613</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="C37" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="D37" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="E37" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="F37" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="K37" t="n">
-        <v>50.43224858622322</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L37" t="n">
-        <v>101.097500415554</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M37" t="n">
         <v>157.7751876912678</v>
@@ -7114,31 +7114,31 @@
         <v>272.5106599395922</v>
       </c>
       <c r="Q37" t="n">
-        <v>272.5106599395922</v>
+        <v>225.3286469936663</v>
       </c>
       <c r="R37" t="n">
-        <v>272.5106599395922</v>
+        <v>225.3286469936663</v>
       </c>
       <c r="S37" t="n">
-        <v>272.5106599395922</v>
+        <v>225.3286469936663</v>
       </c>
       <c r="T37" t="n">
-        <v>269.8431377267345</v>
+        <v>206.7258356685665</v>
       </c>
       <c r="U37" t="n">
-        <v>202.8802301689543</v>
+        <v>139.7629281107864</v>
       </c>
       <c r="V37" t="n">
-        <v>170.3750228240268</v>
+        <v>107.257720765859</v>
       </c>
       <c r="W37" t="n">
-        <v>40.019831589858</v>
+        <v>40.0198315898579</v>
       </c>
       <c r="X37" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291602</v>
+        <v>955.8582442291595</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497079</v>
+        <v>809.0750081497074</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039168</v>
+        <v>672.9885904039165</v>
       </c>
       <c r="E38" t="n">
         <v>509.3796186666319</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379838</v>
+        <v>320.5729947379839</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472088</v>
+        <v>126.0727137472086</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155280007</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I38" t="n">
-        <v>150.081108217644</v>
+        <v>150.0811082176442</v>
       </c>
       <c r="J38" t="n">
-        <v>205.2730345741076</v>
+        <v>205.2730345741077</v>
       </c>
       <c r="K38" t="n">
-        <v>338.7299433974538</v>
+        <v>338.729943397454</v>
       </c>
       <c r="L38" t="n">
-        <v>541.196801717881</v>
+        <v>541.1968017178812</v>
       </c>
       <c r="M38" t="n">
-        <v>798.1496302305738</v>
+        <v>798.1496302305741</v>
       </c>
       <c r="N38" t="n">
-        <v>1063.874032523346</v>
+        <v>1063.874032523347</v>
       </c>
       <c r="O38" t="n">
         <v>1301.454789304038</v>
@@ -7193,31 +7193,31 @@
         <v>1469.723467732332</v>
       </c>
       <c r="Q38" t="n">
-        <v>1547.913490914251</v>
+        <v>1547.913490914252</v>
       </c>
       <c r="R38" t="n">
-        <v>1627.725337080628</v>
+        <v>1627.725337080626</v>
       </c>
       <c r="S38" t="n">
-        <v>1701.494087242933</v>
+        <v>1701.494087242931</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077640004</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839061</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.11470635645</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947295</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547175</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432323</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>631.3163395950833</v>
+        <v>790.9250144172122</v>
       </c>
       <c r="C39" t="n">
-        <v>512.3919665621178</v>
+        <v>616.4719851360852</v>
       </c>
       <c r="D39" t="n">
-        <v>512.3919665621178</v>
+        <v>467.5375754748339</v>
       </c>
       <c r="E39" t="n">
-        <v>512.3919665621178</v>
+        <v>308.3001204693784</v>
       </c>
       <c r="F39" t="n">
-        <v>512.3919665621178</v>
+        <v>308.3001204693784</v>
       </c>
       <c r="G39" t="n">
-        <v>512.3919665621178</v>
+        <v>171.0771397370905</v>
       </c>
       <c r="H39" t="n">
-        <v>512.3919665621178</v>
+        <v>72.27060939283943</v>
       </c>
       <c r="I39" t="n">
-        <v>512.3919665621178</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J39" t="n">
-        <v>526.4460528404871</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K39" t="n">
-        <v>628.6215495170725</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L39" t="n">
-        <v>812.3316551933543</v>
+        <v>334.1492501840366</v>
       </c>
       <c r="M39" t="n">
-        <v>1046.069551643953</v>
+        <v>567.8871466346351</v>
       </c>
       <c r="N39" t="n">
-        <v>1300.402439620528</v>
+        <v>822.2200346112106</v>
       </c>
       <c r="O39" t="n">
-        <v>1510.847548957583</v>
+        <v>1032.665143948266</v>
       </c>
       <c r="P39" t="n">
-        <v>1660.415236125861</v>
+        <v>1182.232831116544</v>
       </c>
       <c r="Q39" t="n">
-        <v>1710.478077640004</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="R39" t="n">
-        <v>1710.478077640004</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="S39" t="n">
-        <v>1710.478077640004</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="T39" t="n">
-        <v>1710.478077640004</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="U39" t="n">
-        <v>1704.532940545582</v>
+        <v>1226.350535536265</v>
       </c>
       <c r="V39" t="n">
-        <v>1469.38083231384</v>
+        <v>1213.377708165482</v>
       </c>
       <c r="W39" t="n">
-        <v>1215.143475585638</v>
+        <v>959.1403514372803</v>
       </c>
       <c r="X39" t="n">
-        <v>1007.291975380105</v>
+        <v>959.1403514372803</v>
       </c>
       <c r="Y39" t="n">
-        <v>799.5316766151514</v>
+        <v>959.1403514372803</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.20956155280007</v>
+        <v>97.32686361096852</v>
       </c>
       <c r="C40" t="n">
-        <v>34.20956155280007</v>
+        <v>97.32686361096852</v>
       </c>
       <c r="D40" t="n">
-        <v>34.20956155280007</v>
+        <v>97.32686361096852</v>
       </c>
       <c r="E40" t="n">
-        <v>34.20956155280007</v>
+        <v>97.32686361096852</v>
       </c>
       <c r="F40" t="n">
-        <v>34.20956155280007</v>
+        <v>97.32686361096852</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155280007</v>
+        <v>97.32686361096852</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155280007</v>
+        <v>73.1140333404561</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155280007</v>
+        <v>73.1140333404561</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155280007</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="K40" t="n">
-        <v>50.43224858622324</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L40" t="n">
-        <v>101.097500415554</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M40" t="n">
         <v>157.7751876912678</v>
@@ -7360,22 +7360,22 @@
         <v>272.5106599395922</v>
       </c>
       <c r="T40" t="n">
-        <v>269.8431377267345</v>
+        <v>269.8431377267347</v>
       </c>
       <c r="U40" t="n">
-        <v>202.8802301689543</v>
+        <v>202.8802301689547</v>
       </c>
       <c r="V40" t="n">
-        <v>170.3750228240268</v>
+        <v>170.3750228240274</v>
       </c>
       <c r="W40" t="n">
-        <v>103.1371336480256</v>
+        <v>103.1371336480263</v>
       </c>
       <c r="X40" t="n">
-        <v>97.32686361096766</v>
+        <v>97.32686361096852</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.20956155280007</v>
+        <v>97.32686361096852</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291594</v>
+        <v>955.8582442291588</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497069</v>
+        <v>809.0750081497066</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039159</v>
+        <v>672.9885904039156</v>
       </c>
       <c r="E41" t="n">
         <v>509.3796186666311</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379829</v>
+        <v>320.572994737983</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472088</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I41" t="n">
-        <v>61.0457358427909</v>
+        <v>150.0811082176441</v>
       </c>
       <c r="J41" t="n">
-        <v>116.2376621992545</v>
+        <v>205.2730345741077</v>
       </c>
       <c r="K41" t="n">
-        <v>249.6945710226007</v>
+        <v>338.7299433974539</v>
       </c>
       <c r="L41" t="n">
-        <v>452.1614293430279</v>
+        <v>541.196801717881</v>
       </c>
       <c r="M41" t="n">
-        <v>709.1142578557208</v>
+        <v>798.1496302305738</v>
       </c>
       <c r="N41" t="n">
-        <v>974.8386601484933</v>
+        <v>1063.874032523346</v>
       </c>
       <c r="O41" t="n">
-        <v>1212.419416929185</v>
+        <v>1301.454789304038</v>
       </c>
       <c r="P41" t="n">
-        <v>1380.688095357479</v>
+        <v>1469.723467732332</v>
       </c>
       <c r="Q41" t="n">
-        <v>1458.878118539398</v>
+        <v>1547.913490914251</v>
       </c>
       <c r="R41" t="n">
-        <v>1636.709327477698</v>
+        <v>1701.494087242931</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.478077640003</v>
+        <v>1701.494087242931</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U41" t="n">
         <v>1678.99831283906</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356449</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W41" t="n">
         <v>1439.525331947294</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547174</v>
+        <v>1288.238854547173</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.278803432322</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>339.9815745313706</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="C42" t="n">
-        <v>339.9815745313706</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="D42" t="n">
-        <v>339.9815745313706</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="E42" t="n">
         <v>180.7441195259151</v>
       </c>
       <c r="F42" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="G42" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="H42" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116941</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K42" t="n">
         <v>150.4391445077547</v>
@@ -7512,28 +7512,28 @@
         <v>1232.295672630686</v>
       </c>
       <c r="R42" t="n">
-        <v>1232.295672630686</v>
+        <v>1178.7632960793</v>
       </c>
       <c r="S42" t="n">
-        <v>1232.295672630686</v>
+        <v>1178.7632960793</v>
       </c>
       <c r="T42" t="n">
-        <v>1232.295672630686</v>
+        <v>1106.109502646773</v>
       </c>
       <c r="U42" t="n">
-        <v>1004.171254675305</v>
+        <v>877.9850846913921</v>
       </c>
       <c r="V42" t="n">
-        <v>769.0191464435627</v>
+        <v>642.8329764596494</v>
       </c>
       <c r="W42" t="n">
-        <v>514.7817897153611</v>
+        <v>388.5956197314479</v>
       </c>
       <c r="X42" t="n">
-        <v>339.9815745313706</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="Y42" t="n">
-        <v>339.9815745313706</v>
+        <v>180.7441195259151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.32686361096766</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="C43" t="n">
-        <v>97.32686361096766</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="D43" t="n">
-        <v>97.32686361096766</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="E43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="F43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="G43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="H43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="K43" t="n">
-        <v>50.43224858622322</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L43" t="n">
-        <v>101.097500415554</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M43" t="n">
         <v>157.7751876912678</v>
@@ -7597,22 +7597,22 @@
         <v>272.5106599395922</v>
       </c>
       <c r="T43" t="n">
-        <v>269.8431377267345</v>
+        <v>206.7258356685665</v>
       </c>
       <c r="U43" t="n">
-        <v>202.8802301689543</v>
+        <v>139.7629281107864</v>
       </c>
       <c r="V43" t="n">
-        <v>170.3750228240268</v>
+        <v>107.257720765859</v>
       </c>
       <c r="W43" t="n">
-        <v>103.1371336480256</v>
+        <v>40.0198315898579</v>
       </c>
       <c r="X43" t="n">
-        <v>97.32686361096766</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.32686361096766</v>
+        <v>34.20956155280004</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291587</v>
+        <v>955.8582442291582</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497065</v>
+        <v>809.0750081497063</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039156</v>
+        <v>672.9885904039154</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666309</v>
+        <v>509.3796186666307</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379828</v>
+        <v>320.5729947379826</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472088</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I44" t="n">
-        <v>150.081108217644</v>
+        <v>150.0811082176441</v>
       </c>
       <c r="J44" t="n">
-        <v>205.2730345741076</v>
+        <v>205.2730345741077</v>
       </c>
       <c r="K44" t="n">
-        <v>338.7299433974538</v>
+        <v>338.7299433974539</v>
       </c>
       <c r="L44" t="n">
         <v>541.196801717881</v>
@@ -7670,22 +7670,22 @@
         <v>1547.913490914251</v>
       </c>
       <c r="R44" t="n">
-        <v>1701.494087242932</v>
+        <v>1636.709327477697</v>
       </c>
       <c r="S44" t="n">
-        <v>1701.494087242932</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.99831283906</v>
+        <v>1678.998312839059</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356449</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947294</v>
+        <v>1439.525331947293</v>
       </c>
       <c r="X44" t="n">
         <v>1288.238854547173</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>357.5970004951783</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="C45" t="n">
-        <v>183.1439712140513</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="D45" t="n">
-        <v>34.20956155280005</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="E45" t="n">
-        <v>34.20956155280005</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="F45" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="G45" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="H45" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116941</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K45" t="n">
         <v>150.4391445077547</v>
@@ -7755,22 +7755,22 @@
         <v>1232.295672630686</v>
       </c>
       <c r="T45" t="n">
-        <v>1036.186750207013</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="U45" t="n">
-        <v>1030.241613112591</v>
+        <v>1226.350535536265</v>
       </c>
       <c r="V45" t="n">
-        <v>1017.268785741808</v>
+        <v>1018.808612244671</v>
       </c>
       <c r="W45" t="n">
-        <v>941.424136485733</v>
+        <v>764.5712555164698</v>
       </c>
       <c r="X45" t="n">
-        <v>733.5726362802002</v>
+        <v>556.719755310937</v>
       </c>
       <c r="Y45" t="n">
-        <v>525.8123375152463</v>
+        <v>348.9594565459831</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73.11403334045613</v>
+        <v>50.14485066504209</v>
       </c>
       <c r="C46" t="n">
-        <v>73.11403334045613</v>
+        <v>50.14485066504209</v>
       </c>
       <c r="D46" t="n">
-        <v>73.11403334045613</v>
+        <v>50.14485066504209</v>
       </c>
       <c r="E46" t="n">
-        <v>73.11403334045613</v>
+        <v>50.14485066504209</v>
       </c>
       <c r="F46" t="n">
-        <v>73.11403334045613</v>
+        <v>50.14485066504209</v>
       </c>
       <c r="G46" t="n">
-        <v>73.11403334045613</v>
+        <v>50.14485066504209</v>
       </c>
       <c r="H46" t="n">
-        <v>73.11403334045613</v>
+        <v>50.14485066504209</v>
       </c>
       <c r="I46" t="n">
-        <v>73.11403334045613</v>
+        <v>50.14485066504209</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155280005</v>
+        <v>34.20956155280003</v>
       </c>
       <c r="K46" t="n">
-        <v>50.43224858622322</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L46" t="n">
-        <v>101.097500415554</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M46" t="n">
         <v>157.7751876912678</v>
@@ -7825,31 +7825,31 @@
         <v>272.5106599395922</v>
       </c>
       <c r="Q46" t="n">
-        <v>272.5106599395922</v>
+        <v>225.3286469936663</v>
       </c>
       <c r="R46" t="n">
-        <v>272.5106599395922</v>
+        <v>225.3286469936663</v>
       </c>
       <c r="S46" t="n">
-        <v>272.5106599395922</v>
+        <v>225.3286469936663</v>
       </c>
       <c r="T46" t="n">
-        <v>245.6303074562229</v>
+        <v>222.6611247808086</v>
       </c>
       <c r="U46" t="n">
-        <v>178.6673998984428</v>
+        <v>155.6982172230285</v>
       </c>
       <c r="V46" t="n">
-        <v>146.1621925535153</v>
+        <v>123.1930098781011</v>
       </c>
       <c r="W46" t="n">
-        <v>78.92430337751408</v>
+        <v>55.95512070209995</v>
       </c>
       <c r="X46" t="n">
-        <v>73.11403334045613</v>
+        <v>50.14485066504209</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.11403334045613</v>
+        <v>50.14485066504209</v>
       </c>
     </row>
   </sheetData>
@@ -9875,10 +9875,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>91.53223909582164</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>237.9164879988973</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>43.6003471484327</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10042,16 +10042,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,16 +10121,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>31.86935775633305</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>106.6467507318083</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10279,16 +10279,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>46.98428890468077</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>105.143100025894</v>
+        <v>200.3545483591717</v>
       </c>
       <c r="M32" t="n">
-        <v>409.5209479663848</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>422.0748412975225</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>144.4523487736396</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>53.09124324422459</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.1687618601729</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>237.4845760736198</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443236</v>
+        <v>279.0877300443238</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.7244505358285</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078952</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>199.9639427727471</v>
+        <v>199.9639427727473</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810812</v>
+        <v>241.9427849810814</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.4496229586658</v>
+        <v>249.8179239412318</v>
       </c>
     </row>
     <row r="12">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.52018388094686</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D14" t="n">
-        <v>226.8947259232951</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443236</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212882</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014321</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078951</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>42.06514086694542</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200252</v>
+        <v>221.4526530200254</v>
       </c>
       <c r="X14" t="n">
-        <v>241.9427849810812</v>
+        <v>241.9427849810814</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.4496229586658</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>966680.2995185636</v>
+        <v>966680.2995185633</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>966680.2995185637</v>
+        <v>966680.2995185634</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1177398.007529638</v>
+        <v>1177398.007529637</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1177398.007529638</v>
+        <v>1177398.007529637</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307228.6270188894</v>
+        <v>307228.6270188893</v>
       </c>
       <c r="C2" t="n">
-        <v>307228.6270188894</v>
+        <v>307228.6270188893</v>
       </c>
       <c r="D2" t="n">
         <v>307228.6270188894</v>
@@ -26323,7 +26323,7 @@
         <v>263640.081686881</v>
       </c>
       <c r="F2" t="n">
-        <v>263640.0816868811</v>
+        <v>263640.0816868809</v>
       </c>
       <c r="G2" t="n">
         <v>307890.6636991061</v>
@@ -26332,16 +26332,16 @@
         <v>307890.6636991061</v>
       </c>
       <c r="I2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="J2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="K2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="M2" t="n">
         <v>307890.6636991064</v>
@@ -26350,7 +26350,7 @@
         <v>307890.6636991064</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="P2" t="n">
         <v>307890.6636991064</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224334</v>
+        <v>766266.5351224332</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774881</v>
+        <v>92112.12268774895</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111884.0815365102</v>
+        <v>111884.08153651</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774879</v>
+        <v>92112.12268774894</v>
       </c>
       <c r="M3" t="n">
         <v>83853.86775413096</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>161674.3217732037</v>
+        <v>161674.3217732036</v>
       </c>
       <c r="F4" t="n">
-        <v>161674.3217732037</v>
+        <v>161674.3217732036</v>
       </c>
       <c r="G4" t="n">
         <v>228781.8774821127</v>
@@ -26442,7 +26442,7 @@
         <v>233178.5095097217</v>
       </c>
       <c r="K4" t="n">
-        <v>233178.5095097218</v>
+        <v>233178.5095097217</v>
       </c>
       <c r="L4" t="n">
         <v>233178.5095097217</v>
@@ -26451,7 +26451,7 @@
         <v>229069.74047253</v>
       </c>
       <c r="N4" t="n">
-        <v>229069.7404725301</v>
+        <v>229069.74047253</v>
       </c>
       <c r="O4" t="n">
         <v>229069.74047253</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>47553.01820892902</v>
+      </c>
+      <c r="F5" t="n">
         <v>47553.01820892903</v>
-      </c>
-      <c r="F5" t="n">
-        <v>47553.01820892905</v>
       </c>
       <c r="G5" t="n">
         <v>57232.73576172449</v>
@@ -26488,10 +26488,10 @@
         <v>57232.73576172449</v>
       </c>
       <c r="I5" t="n">
-        <v>57232.73576172449</v>
+        <v>57232.7357617245</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.96662948883</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="K5" t="n">
         <v>72488.96662948883</v>
@@ -26503,7 +26503,7 @@
         <v>59620.18961222716</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222718</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="O5" t="n">
         <v>59620.18961222716</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-194014.9329128419</v>
+        <v>-194019.34649071</v>
       </c>
       <c r="C6" t="n">
-        <v>-194014.9329128419</v>
+        <v>-194019.34649071</v>
       </c>
       <c r="D6" t="n">
-        <v>-194014.9329128418</v>
+        <v>-194019.34649071</v>
       </c>
       <c r="E6" t="n">
-        <v>-711853.7934176851</v>
+        <v>-712148.7972977663</v>
       </c>
       <c r="F6" t="n">
-        <v>54412.74170474841</v>
+        <v>54117.73782466682</v>
       </c>
       <c r="G6" t="n">
-        <v>-70236.07223247984</v>
+        <v>-70236.07223248004</v>
       </c>
       <c r="H6" t="n">
-        <v>21876.05045526889</v>
+        <v>21876.05045526892</v>
       </c>
       <c r="I6" t="n">
-        <v>21876.05045526897</v>
+        <v>21876.05045526914</v>
       </c>
       <c r="J6" t="n">
-        <v>-109660.8939766145</v>
+        <v>-109660.8939766142</v>
       </c>
       <c r="K6" t="n">
-        <v>2223.187559895829</v>
+        <v>2223.187559895712</v>
       </c>
       <c r="L6" t="n">
-        <v>-89888.93512785315</v>
+        <v>-89888.93512785321</v>
       </c>
       <c r="M6" t="n">
-        <v>-64653.13413978178</v>
+        <v>-64653.13413978172</v>
       </c>
       <c r="N6" t="n">
-        <v>19200.73361434912</v>
+        <v>19200.73361434913</v>
       </c>
       <c r="O6" t="n">
-        <v>19200.73361434913</v>
+        <v>19200.73361434923</v>
       </c>
       <c r="P6" t="n">
-        <v>19200.73361434919</v>
+        <v>19200.7336143492</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G2" t="n">
         <v>242.9284690570738</v>
@@ -26707,25 +26707,25 @@
         <v>242.9284690570738</v>
       </c>
       <c r="J2" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="N2" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="O2" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="P2" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773454</v>
+        <v>694.0053563773453</v>
       </c>
       <c r="F3" t="n">
-        <v>694.0053563773454</v>
+        <v>694.0053563773453</v>
       </c>
       <c r="G3" t="n">
         <v>694.0053563773453</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="F4" t="n">
         <v>356.5898935450531</v>
@@ -26811,25 +26811,25 @@
         <v>356.5898935450531</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550536</v>
+        <v>784.209412955053</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550536</v>
+        <v>784.2094129550533</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550536</v>
+        <v>784.2094129550533</v>
       </c>
       <c r="M4" t="n">
-        <v>427.6195194100007</v>
+        <v>427.6195194100005</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194100009</v>
+        <v>427.6195194100005</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194100007</v>
+        <v>427.6195194100005</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194100007</v>
+        <v>427.6195194100004</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
         <v>104.8173346926637</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773454</v>
+        <v>694.0053563773453</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194100005</v>
+        <v>427.6195194099999</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I11" t="n">
-        <v>102.9155217242245</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.3300042762892</v>
+        <v>40.33000427628923</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E12" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H12" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I12" t="n">
-        <v>48.12670030601734</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>52.9970527858724</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>22.2850893443286</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.94965194982481</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I13" t="n">
-        <v>117.8149057650245</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="J13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="K13" t="n">
-        <v>101.899141078887</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="M13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="N13" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>127.7883156973878</v>
+        <v>98.69197501825897</v>
       </c>
       <c r="P13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="R13" t="n">
-        <v>127.7883156973878</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I14" t="n">
-        <v>102.9155217242245</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.3300042762892</v>
+        <v>40.33000427628923</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973878</v>
+        <v>48.94965194982653</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I15" t="n">
-        <v>48.12670030601734</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>52.9970527858724</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S15" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T15" t="n">
-        <v>48.94965194982413</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W15" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y15" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I16" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J16" t="n">
-        <v>108.6653849506184</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="L16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="M16" t="n">
-        <v>127.7883156973878</v>
+        <v>108.6653849506221</v>
       </c>
       <c r="N16" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="P16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="R16" t="n">
         <v>121.0220718256556</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="17">
@@ -28643,13 +28643,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V18" t="n">
-        <v>81.79939297738019</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>30.7266101910308</v>
       </c>
     </row>
     <row r="19">
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.71019281646672</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>121.0220718256556</v>
@@ -28773,10 +28773,10 @@
         <v>202.20662642754</v>
       </c>
       <c r="T19" t="n">
-        <v>222.598335043079</v>
+        <v>129.5164414803711</v>
       </c>
       <c r="U19" t="n">
-        <v>103.1363826778993</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="V19" t="n">
         <v>242.9284690570738</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,22 +28928,22 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S21" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>19.23987761211038</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>169.4178431274267</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -29007,7 +29007,7 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S22" t="n">
-        <v>62.41454004836532</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T22" t="n">
         <v>222.598335043079</v>
@@ -29025,7 +29025,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>78.79256697292013</v>
       </c>
     </row>
     <row r="23">
@@ -29120,22 +29120,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H24" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,25 +29165,25 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S24" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1478331994369</v>
+        <v>156.2030848461777</v>
       </c>
       <c r="U24" t="n">
-        <v>102.2223587497142</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R25" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>202.20662642754</v>
@@ -29256,10 +29256,10 @@
         <v>242.9284690570738</v>
       </c>
       <c r="W25" t="n">
-        <v>242.9284690570738</v>
+        <v>224.1584545035548</v>
       </c>
       <c r="X25" t="n">
-        <v>132.6277618263292</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L26" t="n">
-        <v>115.140153359686</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O26" t="n">
-        <v>115.140153359686</v>
+        <v>52.51914305127943</v>
       </c>
       <c r="P26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="27">
@@ -29354,19 +29354,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D27" t="n">
-        <v>115.140153359686</v>
+        <v>100.6400124153256</v>
       </c>
       <c r="E27" t="n">
-        <v>115.140153359686</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G27" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H27" t="n">
         <v>97.81846504080859</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.396705637439718</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T27" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U27" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V27" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W27" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X27" t="n">
-        <v>47.64295962945496</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="28">
@@ -29430,31 +29430,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J28" t="n">
-        <v>48.2220077866433</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29463,43 +29463,43 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>100.2086405515258</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.140153359686</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I29" t="n">
-        <v>115.1401533596861</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J29" t="n">
-        <v>115.1401533596861</v>
+        <v>49.62926305075514</v>
       </c>
       <c r="K29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M29" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>115.1401533596861</v>
+        <v>47.6429596294532</v>
       </c>
       <c r="C30" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D30" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E30" t="n">
-        <v>103.2450429100232</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H30" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S30" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T30" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V30" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W30" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y30" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J31" t="n">
-        <v>115.1401533596861</v>
+        <v>4.879185747056169</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>30.31909837080354</v>
       </c>
       <c r="M31" t="n">
-        <v>88.07739305499186</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O31" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N32" t="n">
-        <v>93.72608449311426</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="33">
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>95.769659935471</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F33" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G33" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H33" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I33" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,25 +29876,25 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S33" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T33" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U33" t="n">
-        <v>47.64295962945411</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V33" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W33" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X33" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J34" t="n">
-        <v>115.1401533596861</v>
+        <v>38.51542706977951</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L34" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O34" t="n">
-        <v>115.1401533596861</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>115.1401533596861</v>
+        <v>37.57030986176492</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.1401533596861</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I35" t="n">
-        <v>120.9480307069723</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>219.9574880523498</v>
+        <v>120.9480307069711</v>
       </c>
       <c r="S35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="36">
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102.2223587497138</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>135.850750924965</v>
@@ -30119,13 +30119,13 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>127.5301595913523</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.71019281646672</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>121.0220718256556</v>
@@ -30195,19 +30195,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>219.9574880523498</v>
+        <v>204.1815518312303</v>
       </c>
       <c r="U37" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V37" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W37" t="n">
-        <v>157.4713590147639</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="C38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="D38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="G38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="I38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>120.9480307069732</v>
+        <v>120.9480307069704</v>
       </c>
       <c r="S38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="39">
@@ -30302,25 +30302,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>54.97336968567991</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>48.12670030601735</v>
+        <v>10.44626294437835</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30356,19 +30356,19 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30396,13 +30396,13 @@
         <v>166.7394942895816</v>
       </c>
       <c r="H40" t="n">
-        <v>151.1003325314225</v>
+        <v>127.1296305636152</v>
       </c>
       <c r="I40" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J40" t="n">
-        <v>38.51542706977951</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30432,22 +30432,22 @@
         <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="U40" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V40" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W40" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9574880523498</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y40" t="n">
-        <v>156.0985243145089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I41" t="n">
-        <v>130.0227684817911</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>219.9574880523498</v>
+        <v>195.4619197598044</v>
       </c>
       <c r="S41" t="n">
-        <v>219.9574880523498</v>
+        <v>145.4435989995167</v>
       </c>
       <c r="T41" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="42">
@@ -30545,7 +30545,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>143.9556929504599</v>
       </c>
       <c r="T42" t="n">
-        <v>194.1478331994369</v>
+        <v>122.2205777012352</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>32.72077217132687</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -30624,7 +30624,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>83.94783360898325</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -30669,19 +30669,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9574880523498</v>
+        <v>157.4713590147635</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W43" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X43" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>195.4619197598053</v>
+        <v>130.0227684817896</v>
       </c>
       <c r="S44" t="n">
-        <v>145.4435989995167</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9574880523498</v>
+        <v>210.882750277531</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="45">
@@ -30776,16 +30776,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.850750924965</v>
@@ -30827,16 +30827,16 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V45" t="n">
-        <v>219.9574880523498</v>
+        <v>27.33408309074767</v>
       </c>
       <c r="W45" t="n">
-        <v>176.6087803974054</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>22.73949084865988</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.71019281646672</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>121.0220718256556</v>
@@ -30906,19 +30906,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>195.9867860845434</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U46" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V46" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9574880523498</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -31756,10 +31756,10 @@
         <v>28.5727933909527</v>
       </c>
       <c r="I11" t="n">
-        <v>107.5603678461814</v>
+        <v>107.5603678461813</v>
       </c>
       <c r="J11" t="n">
-        <v>236.7953250887708</v>
+        <v>236.7953250887707</v>
       </c>
       <c r="K11" t="n">
         <v>354.894809452401</v>
@@ -31771,10 +31771,10 @@
         <v>489.8945448562554</v>
       </c>
       <c r="N11" t="n">
-        <v>497.8215507610078</v>
+        <v>497.8215507610077</v>
       </c>
       <c r="O11" t="n">
-        <v>470.078773826426</v>
+        <v>470.0787738264258</v>
       </c>
       <c r="P11" t="n">
         <v>401.2013578040512</v>
@@ -31786,10 +31786,10 @@
         <v>175.2555335378429</v>
       </c>
       <c r="S11" t="n">
-        <v>63.57647058672869</v>
+        <v>63.57647058672868</v>
       </c>
       <c r="T11" t="n">
-        <v>12.21309928660032</v>
+        <v>12.21309928660031</v>
       </c>
       <c r="U11" t="n">
         <v>0.2231977025535179</v>
@@ -31832,46 +31832,46 @@
         <v>1.492766238245611</v>
       </c>
       <c r="H12" t="n">
-        <v>14.41697919568788</v>
+        <v>14.41697919568787</v>
       </c>
       <c r="I12" t="n">
-        <v>51.39567969398266</v>
+        <v>51.39567969398265</v>
       </c>
       <c r="J12" t="n">
         <v>141.0336734124943</v>
       </c>
       <c r="K12" t="n">
-        <v>241.0490113749503</v>
+        <v>241.0490113749502</v>
       </c>
       <c r="L12" t="n">
-        <v>324.1201430892499</v>
+        <v>324.1201430892498</v>
       </c>
       <c r="M12" t="n">
-        <v>378.2329192256532</v>
+        <v>378.2329192256531</v>
       </c>
       <c r="N12" t="n">
-        <v>388.2436191303793</v>
+        <v>388.2436191303792</v>
       </c>
       <c r="O12" t="n">
-        <v>355.1670619566213</v>
+        <v>355.1670619566212</v>
       </c>
       <c r="P12" t="n">
-        <v>285.0528793014799</v>
+        <v>285.0528793014798</v>
       </c>
       <c r="Q12" t="n">
         <v>190.5503008679836</v>
       </c>
       <c r="R12" t="n">
-        <v>92.68245117809155</v>
+        <v>92.68245117809154</v>
       </c>
       <c r="S12" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T12" t="n">
-        <v>6.016895495384719</v>
+        <v>6.016895495384718</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0982083051477376</v>
+        <v>0.09820830514773758</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31917,7 +31917,7 @@
         <v>37.63556916223375</v>
       </c>
       <c r="J13" t="n">
-        <v>88.47999436961662</v>
+        <v>88.47999436961661</v>
       </c>
       <c r="K13" t="n">
         <v>145.3998107295487</v>
@@ -31929,28 +31929,28 @@
         <v>196.1759731149928</v>
       </c>
       <c r="N13" t="n">
-        <v>191.5113469491781</v>
+        <v>191.511346949178</v>
       </c>
       <c r="O13" t="n">
-        <v>176.8917259172946</v>
+        <v>176.8917259172945</v>
       </c>
       <c r="P13" t="n">
-        <v>151.3614305122</v>
+        <v>151.3614305121999</v>
       </c>
       <c r="Q13" t="n">
-        <v>104.7948088129792</v>
+        <v>104.7948088129791</v>
       </c>
       <c r="R13" t="n">
-        <v>56.27131955151392</v>
+        <v>56.27131955151391</v>
       </c>
       <c r="S13" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T13" t="n">
-        <v>5.347254385202495</v>
+        <v>5.347254385202494</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06826282193875535</v>
+        <v>0.06826282193875534</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,10 +31993,10 @@
         <v>28.5727933909527</v>
       </c>
       <c r="I14" t="n">
-        <v>107.5603678461814</v>
+        <v>107.5603678461813</v>
       </c>
       <c r="J14" t="n">
-        <v>236.7953250887708</v>
+        <v>236.7953250887707</v>
       </c>
       <c r="K14" t="n">
         <v>354.894809452401</v>
@@ -32008,10 +32008,10 @@
         <v>489.8945448562554</v>
       </c>
       <c r="N14" t="n">
-        <v>497.8215507610078</v>
+        <v>497.8215507610077</v>
       </c>
       <c r="O14" t="n">
-        <v>470.078773826426</v>
+        <v>470.0787738264258</v>
       </c>
       <c r="P14" t="n">
         <v>401.2013578040512</v>
@@ -32023,10 +32023,10 @@
         <v>175.2555335378429</v>
       </c>
       <c r="S14" t="n">
-        <v>63.57647058672869</v>
+        <v>63.57647058672868</v>
       </c>
       <c r="T14" t="n">
-        <v>12.21309928660032</v>
+        <v>12.21309928660031</v>
       </c>
       <c r="U14" t="n">
         <v>0.2231977025535179</v>
@@ -32069,46 +32069,46 @@
         <v>1.492766238245611</v>
       </c>
       <c r="H15" t="n">
-        <v>14.41697919568788</v>
+        <v>14.41697919568787</v>
       </c>
       <c r="I15" t="n">
-        <v>51.39567969398266</v>
+        <v>51.39567969398265</v>
       </c>
       <c r="J15" t="n">
         <v>141.0336734124943</v>
       </c>
       <c r="K15" t="n">
-        <v>241.0490113749503</v>
+        <v>241.0490113749502</v>
       </c>
       <c r="L15" t="n">
-        <v>324.1201430892499</v>
+        <v>324.1201430892498</v>
       </c>
       <c r="M15" t="n">
-        <v>378.2329192256532</v>
+        <v>378.2329192256531</v>
       </c>
       <c r="N15" t="n">
-        <v>388.2436191303793</v>
+        <v>388.2436191303792</v>
       </c>
       <c r="O15" t="n">
-        <v>355.1670619566213</v>
+        <v>355.1670619566212</v>
       </c>
       <c r="P15" t="n">
-        <v>285.0528793014799</v>
+        <v>285.0528793014798</v>
       </c>
       <c r="Q15" t="n">
         <v>190.5503008679836</v>
       </c>
       <c r="R15" t="n">
-        <v>92.68245117809155</v>
+        <v>92.68245117809154</v>
       </c>
       <c r="S15" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T15" t="n">
-        <v>6.016895495384719</v>
+        <v>6.016895495384718</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0982083051477376</v>
+        <v>0.09820830514773758</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,7 +32154,7 @@
         <v>37.63556916223375</v>
       </c>
       <c r="J16" t="n">
-        <v>88.47999436961662</v>
+        <v>88.47999436961661</v>
       </c>
       <c r="K16" t="n">
         <v>145.3998107295487</v>
@@ -32166,28 +32166,28 @@
         <v>196.1759731149928</v>
       </c>
       <c r="N16" t="n">
-        <v>191.5113469491781</v>
+        <v>191.511346949178</v>
       </c>
       <c r="O16" t="n">
-        <v>176.8917259172946</v>
+        <v>176.8917259172945</v>
       </c>
       <c r="P16" t="n">
-        <v>151.3614305122</v>
+        <v>151.3614305121999</v>
       </c>
       <c r="Q16" t="n">
-        <v>104.7948088129792</v>
+        <v>104.7948088129791</v>
       </c>
       <c r="R16" t="n">
-        <v>56.27131955151392</v>
+        <v>56.27131955151391</v>
       </c>
       <c r="S16" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T16" t="n">
-        <v>5.347254385202495</v>
+        <v>5.347254385202494</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06826282193875535</v>
+        <v>0.06826282193875534</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32470,7 +32470,7 @@
         <v>107.5603678461813</v>
       </c>
       <c r="J20" t="n">
-        <v>236.7953250887707</v>
+        <v>236.7953250887715</v>
       </c>
       <c r="K20" t="n">
         <v>354.894809452401</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.74942056208448</v>
+        <v>55.74942056208442</v>
       </c>
       <c r="K11" t="n">
-        <v>134.8049584074205</v>
+        <v>134.8049584074204</v>
       </c>
       <c r="L11" t="n">
-        <v>204.5119781014417</v>
+        <v>204.5119781014416</v>
       </c>
       <c r="M11" t="n">
         <v>259.5483116289827</v>
@@ -35422,13 +35422,13 @@
         <v>268.4084871644168</v>
       </c>
       <c r="O11" t="n">
-        <v>239.9805624047392</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P11" t="n">
-        <v>169.9683620487817</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.97982139587836</v>
+        <v>78.9798213958783</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K12" t="n">
-        <v>103.2075724005913</v>
+        <v>103.2075724005912</v>
       </c>
       <c r="L12" t="n">
         <v>185.5657633093757</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0988853036349</v>
+        <v>236.0988853036348</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9019070470461</v>
+        <v>256.9019070470459</v>
       </c>
       <c r="O12" t="n">
-        <v>212.5708175121769</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P12" t="n">
         <v>151.0784718871496</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.56852678196208</v>
+        <v>50.56852678196205</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35562,34 +35562,34 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.973409932363111</v>
       </c>
       <c r="J13" t="n">
-        <v>89.2728886276083</v>
+        <v>89.27288862760814</v>
       </c>
       <c r="K13" t="n">
-        <v>118.2856936379003</v>
+        <v>144.1748682564009</v>
       </c>
       <c r="L13" t="n">
-        <v>51.17702204982905</v>
+        <v>178.9653377472167</v>
       </c>
       <c r="M13" t="n">
-        <v>185.0385048647756</v>
+        <v>185.0385048647754</v>
       </c>
       <c r="N13" t="n">
-        <v>191.6141181813327</v>
+        <v>63.82580248394484</v>
       </c>
       <c r="O13" t="n">
-        <v>166.2235031628396</v>
+        <v>137.1271624837107</v>
       </c>
       <c r="P13" t="n">
-        <v>141.4217421604401</v>
+        <v>141.42174216044</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.0781228809211</v>
+        <v>81.07812288092093</v>
       </c>
       <c r="R13" t="n">
-        <v>6.766243871732222</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.74942056208448</v>
+        <v>55.74942056208442</v>
       </c>
       <c r="K14" t="n">
-        <v>134.8049584074205</v>
+        <v>134.8049584074204</v>
       </c>
       <c r="L14" t="n">
-        <v>204.5119781014417</v>
+        <v>204.5119781014416</v>
       </c>
       <c r="M14" t="n">
         <v>259.5483116289827</v>
@@ -35659,13 +35659,13 @@
         <v>268.4084871644168</v>
       </c>
       <c r="O14" t="n">
-        <v>239.9805624047392</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P14" t="n">
-        <v>169.9683620487817</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.97982139587836</v>
+        <v>78.9798213958783</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K15" t="n">
-        <v>103.2075724005913</v>
+        <v>103.2075724005912</v>
       </c>
       <c r="L15" t="n">
         <v>185.5657633093757</v>
       </c>
       <c r="M15" t="n">
-        <v>236.0988853036349</v>
+        <v>236.0988853036348</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9019070470461</v>
+        <v>256.9019070470459</v>
       </c>
       <c r="O15" t="n">
-        <v>212.5708175121769</v>
+        <v>212.5708175121767</v>
       </c>
       <c r="P15" t="n">
         <v>151.0784718871496</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.56852678196208</v>
+        <v>50.56852678196205</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>70.14995788083895</v>
+        <v>89.27288862760814</v>
       </c>
       <c r="K16" t="n">
-        <v>16.38655255901332</v>
+        <v>144.1748682564009</v>
       </c>
       <c r="L16" t="n">
-        <v>178.9653377472169</v>
+        <v>178.9653377472167</v>
       </c>
       <c r="M16" t="n">
-        <v>185.0385048647756</v>
+        <v>165.9155741180099</v>
       </c>
       <c r="N16" t="n">
-        <v>191.6141181813327</v>
+        <v>63.82580248394484</v>
       </c>
       <c r="O16" t="n">
-        <v>166.2235031628396</v>
+        <v>166.2235031628394</v>
       </c>
       <c r="P16" t="n">
-        <v>141.4217421604402</v>
+        <v>141.42174216044</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.07812288092114</v>
+        <v>81.07812288092093</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.74942056208442</v>
+        <v>55.74942056208524</v>
       </c>
       <c r="K20" t="n">
         <v>134.8049584074204</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12.22463163546145</v>
+        <v>12.22463163546162</v>
       </c>
       <c r="J26" t="n">
-        <v>339.9861890938442</v>
+        <v>339.9861890938444</v>
       </c>
       <c r="K26" t="n">
-        <v>249.9451117671065</v>
+        <v>574.0905243382714</v>
       </c>
       <c r="L26" t="n">
-        <v>319.6521314611276</v>
+        <v>296.0442171972633</v>
       </c>
       <c r="M26" t="n">
-        <v>374.6884649886687</v>
+        <v>374.6884649886688</v>
       </c>
       <c r="N26" t="n">
-        <v>383.5486405241028</v>
+        <v>383.548640524103</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1207157644251</v>
+        <v>292.4997054560185</v>
       </c>
       <c r="P26" t="n">
-        <v>523.0250034073649</v>
+        <v>285.1085154084678</v>
       </c>
       <c r="Q26" t="n">
-        <v>406.434965415469</v>
+        <v>406.4349654154692</v>
       </c>
       <c r="R26" t="n">
-        <v>140.5265689563792</v>
+        <v>140.5265689563794</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.34282203958713</v>
+        <v>76.62472628990669</v>
       </c>
       <c r="K28" t="n">
-        <v>123.1303189036658</v>
+        <v>16.3865525590133</v>
       </c>
       <c r="L28" t="n">
         <v>213.6517235913834</v>
       </c>
       <c r="M28" t="n">
-        <v>235.7598500768334</v>
+        <v>350.9000034365196</v>
       </c>
       <c r="N28" t="n">
-        <v>235.6435193284066</v>
+        <v>164.0344430354706</v>
       </c>
       <c r="O28" t="n">
         <v>201.4768538313342</v>
       </c>
       <c r="P28" t="n">
-        <v>148.6399897770934</v>
+        <v>128.7735798227385</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.63276556128474</v>
+        <v>68.42996054321948</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>12.22463163546153</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>170.8895739217705</v>
+        <v>274.4752987849133</v>
       </c>
       <c r="K29" t="n">
-        <v>249.9451117671065</v>
+        <v>574.0905243382714</v>
       </c>
       <c r="L29" t="n">
-        <v>319.6521314611277</v>
+        <v>319.6521314611279</v>
       </c>
       <c r="M29" t="n">
-        <v>374.6884649886688</v>
+        <v>259.5483116289827</v>
       </c>
       <c r="N29" t="n">
-        <v>415.4179982804359</v>
+        <v>383.548640524103</v>
       </c>
       <c r="O29" t="n">
-        <v>735.9208970271706</v>
+        <v>355.1207157644253</v>
       </c>
       <c r="P29" t="n">
-        <v>606.9072235799504</v>
+        <v>391.7552661402761</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.1199747555644</v>
+        <v>406.4349654154692</v>
       </c>
       <c r="R29" t="n">
-        <v>25.38641559669321</v>
+        <v>140.5265689563794</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>110.2609676126299</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>16.3865525590133</v>
+        <v>238.270472263352</v>
       </c>
       <c r="L31" t="n">
-        <v>51.17702204982902</v>
+        <v>81.49612042063256</v>
       </c>
       <c r="M31" t="n">
-        <v>323.8372431318253</v>
+        <v>350.9000034365196</v>
       </c>
       <c r="N31" t="n">
-        <v>350.7836726880927</v>
+        <v>178.965955843631</v>
       </c>
       <c r="O31" t="n">
-        <v>200.5596297298186</v>
+        <v>38.43518746545175</v>
       </c>
       <c r="P31" t="n">
-        <v>148.6399897770934</v>
+        <v>263.7801431367797</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.63276556128474</v>
+        <v>68.42996054321948</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>12.22463163546152</v>
+        <v>12.22463163546159</v>
       </c>
       <c r="J32" t="n">
-        <v>170.8895739217705</v>
+        <v>170.8895739217706</v>
       </c>
       <c r="K32" t="n">
-        <v>249.9451117671065</v>
+        <v>249.9451117671066</v>
       </c>
       <c r="L32" t="n">
-        <v>424.7952314870217</v>
+        <v>520.0066798202995</v>
       </c>
       <c r="M32" t="n">
-        <v>784.2094129550536</v>
+        <v>374.6884649886688</v>
       </c>
       <c r="N32" t="n">
-        <v>784.2094129550536</v>
+        <v>383.548640524103</v>
       </c>
       <c r="O32" t="n">
-        <v>239.9805624047391</v>
+        <v>355.1207157644253</v>
       </c>
       <c r="P32" t="n">
-        <v>169.9683620487816</v>
+        <v>606.9072235799504</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1199747555644</v>
+        <v>291.294812055783</v>
       </c>
       <c r="R32" t="n">
-        <v>74.81014908339687</v>
+        <v>140.5265689563794</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>110.2609676126299</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>123.1303189036658</v>
+        <v>238.270472263352</v>
       </c>
       <c r="L34" t="n">
-        <v>166.3171754095151</v>
+        <v>213.6517235913834</v>
       </c>
       <c r="M34" t="n">
-        <v>172.3903425270739</v>
+        <v>57.25018916738776</v>
       </c>
       <c r="N34" t="n">
-        <v>178.9659558436309</v>
+        <v>323.4183046172706</v>
       </c>
       <c r="O34" t="n">
-        <v>153.5753408251379</v>
+        <v>201.4768538313342</v>
       </c>
       <c r="P34" t="n">
-        <v>181.864823066963</v>
+        <v>186.2102996388583</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.7729189209708</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>18.03250898274777</v>
+        <v>117.0419663281253</v>
       </c>
       <c r="J35" t="n">
         <v>55.74942056208442</v>
@@ -37327,13 +37327,13 @@
         <v>78.9798213958783</v>
       </c>
       <c r="R35" t="n">
-        <v>179.6274837760606</v>
+        <v>80.61802643068188</v>
       </c>
       <c r="S35" t="n">
-        <v>74.51388905283312</v>
+        <v>74.51388905283321</v>
       </c>
       <c r="T35" t="n">
-        <v>9.074737774818747</v>
+        <v>9.074737774818832</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>117.0419663281252</v>
+        <v>117.0419663281254</v>
       </c>
       <c r="J38" t="n">
         <v>55.74942056208442</v>
@@ -37564,13 +37564,13 @@
         <v>78.9798213958783</v>
       </c>
       <c r="R38" t="n">
-        <v>80.61802643068395</v>
+        <v>80.6180264306812</v>
       </c>
       <c r="S38" t="n">
-        <v>74.51388905283312</v>
+        <v>74.51388905283329</v>
       </c>
       <c r="T38" t="n">
-        <v>9.074737774818747</v>
+        <v>9.074737774818917</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>27.10724675756651</v>
+        <v>117.0419663281253</v>
       </c>
       <c r="J41" t="n">
         <v>55.74942056208442</v>
@@ -37801,13 +37801,13 @@
         <v>78.9798213958783</v>
       </c>
       <c r="R41" t="n">
-        <v>179.6274837760606</v>
+        <v>155.1319154835152</v>
       </c>
       <c r="S41" t="n">
-        <v>74.51388905283312</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>9.074737774818832</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>117.0419663281252</v>
+        <v>117.0419663281253</v>
       </c>
       <c r="J44" t="n">
         <v>55.74942056208442</v>
@@ -38038,13 +38038,13 @@
         <v>78.9798213958783</v>
       </c>
       <c r="R44" t="n">
-        <v>155.1319154835161</v>
+        <v>89.6927642055004</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>74.51388905283321</v>
       </c>
       <c r="T44" t="n">
-        <v>9.074737774818747</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
